--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20A9F8-1494-41C6-B3C5-247AA260F2D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C50E54-26DF-4E8B-A38A-052032956746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Apellido</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>RESTO</t>
+  </si>
+  <si>
+    <t>VENTILADOR</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -428,25 +431,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,6 +445,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -776,7 +780,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,16 +826,16 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -906,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -948,13 +952,13 @@
         <v>16777216</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -990,13 +994,13 @@
         <v>33346</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1016,13 +1020,13 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1057,7 +1061,7 @@
       <c r="K8" s="16">
         <v>65536</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1101,61 +1105,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52892A9-9843-418B-B9E0-37B5938FBA83}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="24" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="13" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1169,10 +1175,10 @@
       <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="23">
         <v>25000</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="25">
         <f>cant*precio</f>
         <v>50000</v>
       </c>
@@ -1213,10 +1219,10 @@
       <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="23">
         <v>6500</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <f>cant*precio</f>
         <v>32500</v>
       </c>
@@ -1257,10 +1263,10 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="23">
         <v>56000</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="25">
         <f>cant*precio</f>
         <v>112000</v>
       </c>
@@ -1301,10 +1307,10 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="23">
         <v>32000</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <f>cant*precio</f>
         <v>96000</v>
       </c>
@@ -1333,6 +1339,19 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="25">
+        <f>cant*precio</f>
+        <v>10000</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>64</v>
       </c>

--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C50E54-26DF-4E8B-A38A-052032956746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B92A0CD-273F-442D-BC31-F80F81096695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
     <sheet name="VENTAS" sheetId="2" r:id="rId2"/>
+    <sheet name="PRESENTISMO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="cant">VENTAS!$C:$C</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="93">
   <si>
     <t>Apellido</t>
   </si>
@@ -113,9 +114,6 @@
     <t>VALOR</t>
   </si>
   <si>
-    <t>DATOS DE UNA PLANILLA</t>
-  </si>
-  <si>
     <t>texto</t>
   </si>
   <si>
@@ -137,9 +135,6 @@
     <t>porcentaje</t>
   </si>
   <si>
-    <t>RANGOS DE HOJA DE CALCULO</t>
-  </si>
-  <si>
     <t>COLUMNA</t>
   </si>
   <si>
@@ -176,15 +171,6 @@
     <t>$A$1; $A$2</t>
   </si>
   <si>
-    <t>$A$1:$J$1; $1:$1</t>
-  </si>
-  <si>
-    <t>$A$1:$A$9 ; $A:$A</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>ARTICULO</t>
   </si>
   <si>
@@ -246,6 +232,107 @@
   </si>
   <si>
     <t>VENTILADOR</t>
+  </si>
+  <si>
+    <t>COD.</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>$A1:$A9 ; $A:$A</t>
+  </si>
+  <si>
+    <t>A$1:J$1; $1:$1</t>
+  </si>
+  <si>
+    <t>RANGOS HOJA DE CALCULO</t>
+  </si>
+  <si>
+    <t>fraccion</t>
+  </si>
+  <si>
+    <t>cientifica</t>
+  </si>
+  <si>
+    <t>DATOS PLANILLA CALCULO</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>operación</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Operación Matematica que toma como referente los valores de las celdas seleccionadas. Debemos utilizar unicamente celdas que contengan numeros, asi como tambien valores validos para operar.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Palabras Reservadas que permiten realizar alguna operación, normalmente permiten utilizar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RANGOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y totalizan los valores de las celdas, pudiendo distinguir entre valores utilizables y no validos</t>
+    </r>
+  </si>
+  <si>
+    <t>Sesto</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Asist.</t>
+  </si>
+  <si>
+    <t>Inasist.</t>
+  </si>
+  <si>
+    <t>Asistencia Diaria</t>
   </si>
 </sst>
 </file>
@@ -258,7 +345,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +387,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,8 +415,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3B40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -342,15 +455,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -390,16 +494,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -445,10 +592,35 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,7 +632,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -469,6 +676,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3B40"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -777,323 +989,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5E07A1-3D53-4109-AF4A-DD8C576D2A6D}">
-  <dimension ref="A1:O10"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="28" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="J1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35353535</v>
+      </c>
+      <c r="E3" s="4">
+        <v>33346</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="28" t="s">
+      <c r="K3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>91234121</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25626</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9430211</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="11">
+        <v>16777216</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="N4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
-        <v>35353535</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D5" s="2">
+        <v>43123891</v>
+      </c>
+      <c r="E5" s="4">
+        <v>34982</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14623894</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="12">
         <v>33346</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>56481231</v>
+      </c>
+      <c r="E6" s="4">
+        <v>36502</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2">
+        <v>19273491</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
-        <v>91234121</v>
-      </c>
-      <c r="E3" s="5">
-        <v>25626</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3">
-        <v>9430211</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4819292</v>
+      </c>
+      <c r="E7" s="4">
+        <v>22224</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="14">
+        <v>65536</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
-        <v>43123891</v>
-      </c>
-      <c r="E4" s="5">
-        <v>34982</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3">
-        <v>14623894</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="12">
-        <v>16777216</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>56481231</v>
-      </c>
-      <c r="E5" s="5">
-        <v>36502</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3">
-        <v>19273491</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="13">
-        <v>33346</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="11" t="s">
+      <c r="D8" s="2">
+        <v>6812320</v>
+      </c>
+      <c r="E8" s="4">
+        <v>23887</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <v>65536</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="11" t="s">
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="39">
+        <v>16237421</v>
+      </c>
+      <c r="E9" s="4">
+        <v>29635</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="29">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="30">
         <v>65536</v>
       </c>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,280 +1374,1162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52892A9-9843-418B-B9E0-37B5938FBA83}">
-  <dimension ref="A1:O6"/>
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="23" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="L1" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D3" s="22">
         <v>25000</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E3" s="24">
         <f>cant*precio</f>
         <v>50000</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
-        <f>H2+I2</f>
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3+I3</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="2">
         <v>5</v>
       </c>
-      <c r="N2" s="3">
-        <v>2</v>
-      </c>
-      <c r="O2" s="3">
-        <f>SUM(H2:N2)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <f>SUM(L3:N3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3241</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D4" s="22">
         <v>6500</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E4" s="24">
         <f>cant*precio</f>
         <v>32500</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <f>H4-I4</f>
         <v>2</v>
       </c>
-      <c r="J3" s="3">
-        <f>H3-I3</f>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="3">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="O4" s="2">
+        <f>COUNT(L4:N4)</f>
         <v>2</v>
       </c>
-      <c r="O3" s="3">
-        <f>COUNT(H3:N3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2154</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D5" s="22">
         <v>56000</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E5" s="24">
         <f>cant*precio</f>
         <v>112000</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <f>H4*I4</f>
-        <v>10</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <f>H5*I5</f>
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2">
         <v>5</v>
       </c>
-      <c r="N4" s="3">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3">
-        <f>PRODUCT(H4:N4)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2">
+        <f>PRODUCT(L5:N5)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2143</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D6" s="22">
         <v>32000</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E6" s="24">
         <f>cant*precio</f>
         <v>96000</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <f>H6/I6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2">
+        <f>MOD(M6,N6)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="3">
-        <f>H5/I5</f>
-        <v>2.5</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="3">
-        <v>5</v>
-      </c>
-      <c r="N5" s="3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>5421</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="25">
         <v>2</v>
       </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="31">
-        <v>2</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="D7" s="22">
         <v>5000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E7" s="24">
         <f>cant*precio</f>
         <v>10000</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <f>H7^I7</f>
+        <v>125</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <f>POWER(M7,N7)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="L8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G8:J14"/>
+    <mergeCell ref="L8:O14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5FDB7-88AC-43F8-B859-2745D932DEBA}">
+  <dimension ref="A1:AH9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="52">
+        <v>44197</v>
+      </c>
+      <c r="C1" s="44">
+        <v>44198</v>
+      </c>
+      <c r="D1" s="52">
+        <v>44199</v>
+      </c>
+      <c r="E1" s="44">
+        <v>44200</v>
+      </c>
+      <c r="F1" s="44">
+        <v>44201</v>
+      </c>
+      <c r="G1" s="44">
+        <v>44202</v>
+      </c>
+      <c r="H1" s="44">
+        <v>44203</v>
+      </c>
+      <c r="I1" s="44">
+        <v>44204</v>
+      </c>
+      <c r="J1" s="44">
+        <v>44205</v>
+      </c>
+      <c r="K1" s="52">
+        <v>44206</v>
+      </c>
+      <c r="L1" s="44">
+        <v>44207</v>
+      </c>
+      <c r="M1" s="44">
+        <v>44208</v>
+      </c>
+      <c r="N1" s="44">
+        <v>44209</v>
+      </c>
+      <c r="O1" s="44">
+        <v>44210</v>
+      </c>
+      <c r="P1" s="44">
+        <v>44211</v>
+      </c>
+      <c r="Q1" s="44">
+        <v>44212</v>
+      </c>
+      <c r="R1" s="52">
+        <v>44213</v>
+      </c>
+      <c r="S1" s="44">
+        <v>44214</v>
+      </c>
+      <c r="T1" s="44">
+        <v>44215</v>
+      </c>
+      <c r="U1" s="44">
+        <v>44216</v>
+      </c>
+      <c r="V1" s="44">
+        <v>44217</v>
+      </c>
+      <c r="W1" s="44">
+        <v>44218</v>
+      </c>
+      <c r="X1" s="44">
+        <v>44219</v>
+      </c>
+      <c r="Y1" s="52">
+        <v>44220</v>
+      </c>
+      <c r="Z1" s="44">
+        <v>44221</v>
+      </c>
+      <c r="AA1" s="44">
+        <v>44222</v>
+      </c>
+      <c r="AB1" s="44">
+        <v>44223</v>
+      </c>
+      <c r="AC1" s="44">
+        <v>44224</v>
+      </c>
+      <c r="AD1" s="44">
+        <v>44225</v>
+      </c>
+      <c r="AE1" s="44">
+        <v>44226</v>
+      </c>
+      <c r="AF1" s="52">
+        <v>44227</v>
+      </c>
+      <c r="AG1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="str">
+        <f>CONCATENATE(CLIENTES!$B3," ",CLIENTES!$A3)</f>
+        <v>Cristian Racedo</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="53"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="50">
+        <f>COUNTA($B2:$AF2)</f>
+        <v>17</v>
+      </c>
+      <c r="AH2" s="50">
+        <f>COUNTBLANK($B2:$AF2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="str">
+        <f>CONCATENATE(CLIENTES!$B4," ",CLIENTES!$A4)</f>
+        <v>Tomas Alvarez</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="53"/>
+      <c r="S3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="50">
+        <f t="shared" ref="AG3:AG8" si="0">COUNTA($B3:$AF3)</f>
+        <v>9</v>
+      </c>
+      <c r="AH3" s="50">
+        <f t="shared" ref="AH3:AH8" si="1">COUNTBLANK($B3:$AF3)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="str">
+        <f>CONCATENATE(CLIENTES!$B5," ",CLIENTES!$A5)</f>
+        <v>Joaquin Carballo</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="53"/>
+      <c r="S4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="50">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AH4" s="50">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="str">
+        <f>CONCATENATE(CLIENTES!$B6," ",CLIENTES!$A6)</f>
+        <v>Soledad Luna</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="53"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AH5" s="50">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="str">
+        <f>CONCATENATE(CLIENTES!$B7," ",CLIENTES!$A7)</f>
+        <v>Camilo Sesto</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="53"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="50">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="str">
+        <f>CONCATENATE(CLIENTES!$B8," ",CLIENTES!$A8)</f>
+        <v>Roberto Sanchez</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AH7" s="50">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="str">
+        <f>CONCATENATE(CLIENTES!$B9," ",CLIENTES!$A9)</f>
+        <v>Nino Bravo</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="56"/>
+      <c r="S8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="51">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AH8" s="51">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="50">
+        <f>COUNTA(C$2:C$8)</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="50">
+        <f t="shared" ref="C9:AH9" si="2">COUNTA(E$2:E$8)</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="50">
+        <f>COUNTA(F$2:F$8)</f>
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <f>H6^I6</f>
+      <c r="G9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="50">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M9" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P9" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q9" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="S9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T9" s="50">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V9" s="50">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X9" s="50">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AA9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AB9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AC9" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AD9" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AE9" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="57">
+        <f>COUNT(B9:AF9)</f>
         <v>25</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="3">
-        <v>5</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3"/>
+      <c r="AH9" s="57">
+        <f>COUNTBLANK(B9:AF9)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B92A0CD-273F-442D-BC31-F80F81096695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A69F1A-A896-4287-8703-DC03FA2A1502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
   <si>
     <t>Apellido</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Asistencia Diaria</t>
+  </si>
+  <si>
+    <t>CONTAR (RANGO) : cuenta las celdas con numeros</t>
+  </si>
+  <si>
+    <t>CONTAR.BLANCO(RANGO): cuenta las celdas vacias</t>
+  </si>
+  <si>
+    <t>CONTARA(RANGO): cuenta las celdas con contenido</t>
   </si>
 </sst>
 </file>
@@ -1770,13 +1779,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5FDB7-88AC-43F8-B859-2745D932DEBA}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,6 +2537,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A69F1A-A896-4287-8703-DC03FA2A1502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C1379-91E2-4C94-B3FC-ACDC4FB19024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
     <sheet name="VENTAS" sheetId="2" r:id="rId2"/>
     <sheet name="PRESENTISMO" sheetId="3" r:id="rId3"/>
+    <sheet name="FACTURACION" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="cant">VENTAS!$C:$C</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="131">
   <si>
     <t>Apellido</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Alvarez</t>
   </si>
   <si>
-    <t>Tomas</t>
-  </si>
-  <si>
     <t>ci</t>
   </si>
   <si>
@@ -81,9 +79,6 @@
     <t>Carballo</t>
   </si>
   <si>
-    <t>Joaquin</t>
-  </si>
-  <si>
     <t>cuchacucha</t>
   </si>
   <si>
@@ -93,9 +88,6 @@
     <t>Luna</t>
   </si>
   <si>
-    <t>Soledad</t>
-  </si>
-  <si>
     <t>ayacucho</t>
   </si>
   <si>
@@ -103,9 +95,6 @@
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>Numero</t>
   </si>
   <si>
     <t>TIPO</t>
@@ -299,30 +288,24 @@
     <t>Sesto</t>
   </si>
   <si>
-    <t>Camilo</t>
-  </si>
-  <si>
     <t>le</t>
   </si>
   <si>
     <t>Sanchez</t>
   </si>
   <si>
-    <t>Roberto</t>
-  </si>
-  <si>
     <t>Bravo</t>
   </si>
   <si>
-    <t>Nino</t>
-  </si>
-  <si>
     <t>lc</t>
   </si>
   <si>
     <t>Empleado</t>
   </si>
   <si>
+    <t>Cristian Damian</t>
+  </si>
+  <si>
     <t>p</t>
   </si>
   <si>
@@ -332,9 +315,6 @@
     <t>Inasist.</t>
   </si>
   <si>
-    <t>Asistencia Diaria</t>
-  </si>
-  <si>
     <t>CONTAR (RANGO) : cuenta las celdas con numeros</t>
   </si>
   <si>
@@ -342,17 +322,145 @@
   </si>
   <si>
     <t>CONTARA(RANGO): cuenta las celdas con contenido</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>REDONDEAR</t>
+  </si>
+  <si>
+    <t>MODA</t>
+  </si>
+  <si>
+    <t>MEDIANA</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>ESTADISTICAS ASIST.</t>
+  </si>
+  <si>
+    <t>20-35353535-4</t>
+  </si>
+  <si>
+    <t>24-91234121-7</t>
+  </si>
+  <si>
+    <t>29-43123891-4</t>
+  </si>
+  <si>
+    <t>24-56481231-4</t>
+  </si>
+  <si>
+    <t>30-04819292-2</t>
+  </si>
+  <si>
+    <t>20-06812320-6</t>
+  </si>
+  <si>
+    <t>20-16237421-4</t>
+  </si>
+  <si>
+    <t>CUIT</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>VERIF</t>
+  </si>
+  <si>
+    <t>IZQUIERDA(TEXTO; CANTIDAD CARACTERES): extrae la cantidad de caracteres especificada de izquierda a derecha de un texto</t>
+  </si>
+  <si>
+    <t>DERECHA(TEXTO; CANTIDAD CARACTERES): extrae la cantidad de caracteres especificada de derecha a izquierda de un texto</t>
+  </si>
+  <si>
+    <t>EXTRAE(TEXTO; POSICION INICIAL; CANTIDAD): extrae de un texto la cantidad de caracteres especificada, a partir de la posicion indicada</t>
+  </si>
+  <si>
+    <t>ENCONTRAR(TEXTO_BUSCADO; TEXTO): Busca el texto indicado entre comillas y retorna la posicion del mismo, en caso que exista</t>
+  </si>
+  <si>
+    <t>ASIST DIARIAS</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>LARGO(TEXTO): retorna la cantidad total de caracteres dentro del texto especificado</t>
+  </si>
+  <si>
+    <t>2° nombre</t>
+  </si>
+  <si>
+    <t>Tomas Gonzalo</t>
+  </si>
+  <si>
+    <t>Joaquin Daniel</t>
+  </si>
+  <si>
+    <t>Soledad Aimara</t>
+  </si>
+  <si>
+    <t>Camilo Alberto</t>
+  </si>
+  <si>
+    <t>Roberto Julio</t>
+  </si>
+  <si>
+    <t>Nino Antonio</t>
+  </si>
+  <si>
+    <t>separa_2</t>
+  </si>
+  <si>
+    <t>separa_1</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>HOY</t>
+  </si>
+  <si>
+    <t>AHORA</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>MINUTO</t>
+  </si>
+  <si>
+    <t>SEGUNDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -553,7 +661,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -661,9 +769,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -677,6 +782,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1004,15 +1123,15 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1027,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1037,12 +1156,12 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
       <c r="J1" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K1" s="34"/>
       <c r="L1" s="6"/>
       <c r="M1" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
@@ -1055,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>2</v>
@@ -1073,19 +1192,19 @@
         <v>5</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1093,13 +1212,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>35353535</v>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="4">
         <v>33346</v>
@@ -1114,20 +1233,20 @@
         <v>12345678</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1135,13 +1254,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>91234121</v>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="4">
         <v>25626</v>
@@ -1150,124 +1269,124 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2">
         <v>9430211</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4" s="11">
         <v>16777216</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
-        <v>43123891</v>
+      <c r="D5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E5" s="4">
         <v>34982</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
         <v>14623894</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5" s="12">
         <v>33346</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="O5" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
-        <v>56481231</v>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E6" s="4">
         <v>36502</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2">
         <v>19273491</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="13">
         <v>0.86111111111111116</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="O6" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4819292</v>
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="4">
         <v>22224</v>
@@ -1276,7 +1395,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="J7" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K7" s="14">
         <v>65536</v>
@@ -1285,16 +1404,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>6812320</v>
+      <c r="D8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="4">
         <v>23887</v>
@@ -1303,7 +1422,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K8" s="15">
         <v>65536</v>
@@ -1312,16 +1431,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="39">
-        <v>16237421</v>
+        <v>80</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="E9" s="4">
         <v>29635</v>
@@ -1330,7 +1449,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="J9" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9" s="16">
         <v>0.2</v>
@@ -1347,7 +1466,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="J10" s="26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K10" s="29">
         <v>3.25</v>
@@ -1363,7 +1482,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K11" s="30">
         <v>65536</v>
@@ -1411,20 +1530,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
       <c r="G1" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="L1" s="38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
@@ -1432,43 +1551,43 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1476,7 +1595,7 @@
         <v>1234</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1489,7 +1608,7 @@
         <v>50000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>5</v>
@@ -1502,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M3" s="2">
         <v>5</v>
@@ -1520,7 +1639,7 @@
         <v>3241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -1533,7 +1652,7 @@
         <v>32500</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
@@ -1546,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2">
         <v>5</v>
@@ -1564,7 +1683,7 @@
         <v>2154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1577,7 +1696,7 @@
         <v>112000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
@@ -1590,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M5" s="2">
         <v>5</v>
@@ -1608,7 +1727,7 @@
         <v>2143</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1621,7 +1740,7 @@
         <v>96000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
@@ -1634,7 +1753,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
@@ -1652,7 +1771,7 @@
         <v>5421</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="25">
         <v>2</v>
@@ -1665,7 +1784,7 @@
         <v>10000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
@@ -1678,7 +1797,7 @@
         <v>125</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
@@ -1693,13 +1812,13 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="L8" s="41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -1779,33 +1898,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5FDB7-88AC-43F8-B859-2745D932DEBA}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="3.7109375" style="57" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.7109375" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="52">
+        <v>81</v>
+      </c>
+      <c r="B1" s="51">
         <v>44197</v>
       </c>
       <c r="C1" s="44">
         <v>44198</v>
       </c>
-      <c r="D1" s="52">
+      <c r="D1" s="51">
         <v>44199</v>
       </c>
       <c r="E1" s="44">
@@ -1826,7 +1950,7 @@
       <c r="J1" s="44">
         <v>44205</v>
       </c>
-      <c r="K1" s="52">
+      <c r="K1" s="51">
         <v>44206</v>
       </c>
       <c r="L1" s="44">
@@ -1847,7 +1971,7 @@
       <c r="Q1" s="44">
         <v>44212</v>
       </c>
-      <c r="R1" s="52">
+      <c r="R1" s="51">
         <v>44213</v>
       </c>
       <c r="S1" s="44">
@@ -1868,7 +1992,7 @@
       <c r="X1" s="44">
         <v>44219</v>
       </c>
-      <c r="Y1" s="52">
+      <c r="Y1" s="51">
         <v>44220</v>
       </c>
       <c r="Z1" s="44">
@@ -1889,671 +2013,1224 @@
       <c r="AE1" s="44">
         <v>44226</v>
       </c>
-      <c r="AF1" s="52">
+      <c r="AF1" s="51">
         <v>44227</v>
       </c>
       <c r="AG1" s="46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AH1" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="str">
         <f>CONCATENATE(CLIENTES!$B3," ",CLIENTES!$A3)</f>
-        <v>Cristian Racedo</v>
-      </c>
-      <c r="B2" s="53"/>
+        <v>Cristian Damian Racedo</v>
+      </c>
+      <c r="B2" s="52"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="53"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="K2" s="52"/>
       <c r="L2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="R2" s="52"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="50">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="49">
         <f>COUNTA($B2:$AF2)</f>
         <v>17</v>
       </c>
-      <c r="AH2" s="50">
+      <c r="AH2" s="49">
         <f>COUNTBLANK($B2:$AF2)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" s="37"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="str">
         <f>CONCATENATE(CLIENTES!$B4," ",CLIENTES!$A4)</f>
-        <v>Tomas Alvarez</v>
-      </c>
-      <c r="B3" s="53"/>
+        <v>Tomas Gonzalo Alvarez</v>
+      </c>
+      <c r="B3" s="52"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="54"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="53"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
       <c r="O3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="R3" s="52"/>
       <c r="S3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y3" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="Y3" s="52"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="50">
-        <f t="shared" ref="AG3:AG8" si="0">COUNTA($B3:$AF3)</f>
+        <v>83</v>
+      </c>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="49">
+        <f>COUNTA($B3:$AF3)</f>
         <v>9</v>
       </c>
-      <c r="AH3" s="50">
-        <f t="shared" ref="AH3:AH8" si="1">COUNTBLANK($B3:$AF3)</f>
+      <c r="AH3" s="49">
+        <f>COUNTBLANK($B3:$AF3)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>MIN(AG2:AG8)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="str">
         <f>CONCATENATE(CLIENTES!$B5," ",CLIENTES!$A5)</f>
-        <v>Joaquin Carballo</v>
-      </c>
-      <c r="B4" s="53"/>
+        <v>Joaquin Daniel Carballo</v>
+      </c>
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="K4" s="52"/>
       <c r="L4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="R4" s="52"/>
       <c r="S4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y4" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="Y4" s="52"/>
       <c r="Z4" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AD4" s="3"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="50">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AH4" s="50">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="49">
+        <f>COUNTA($B4:$AF4)</f>
+        <v>16</v>
+      </c>
+      <c r="AH4" s="49">
+        <f>COUNTBLANK($B4:$AF4)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>MAX(AG2:AG8)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="str">
         <f>CONCATENATE(CLIENTES!$B6," ",CLIENTES!$A6)</f>
-        <v>Soledad Luna</v>
-      </c>
-      <c r="B5" s="53"/>
+        <v>Soledad Aimara Luna</v>
+      </c>
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="K5" s="52"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="53"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y5" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="50">
-        <f t="shared" si="0"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="49">
+        <f>COUNTA($B5:$AF5)</f>
         <v>12</v>
       </c>
-      <c r="AH5" s="50">
-        <f t="shared" si="1"/>
+      <c r="AH5" s="49">
+        <f>COUNTBLANK($B5:$AF5)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" s="61">
+        <f>AVERAGE(AG2:AG8)</f>
+        <v>14.428571428571429</v>
+      </c>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="58"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="str">
         <f>CONCATENATE(CLIENTES!$B7," ",CLIENTES!$A7)</f>
-        <v>Camilo Sesto</v>
-      </c>
-      <c r="B6" s="53"/>
+        <v>Camilo Alberto Sesto</v>
+      </c>
+      <c r="B6" s="52"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="54"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="K6" s="52"/>
       <c r="L6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="R6" s="52"/>
       <c r="S6" s="2"/>
       <c r="T6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y6" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="50">
-        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="49">
+        <f>COUNTA($B6:$AF6)</f>
         <v>17</v>
       </c>
-      <c r="AH6" s="50">
-        <f t="shared" si="1"/>
+      <c r="AH6" s="49">
+        <f>COUNTBLANK($B6:$AF6)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="62">
+        <f>ROUND(AK5,2)</f>
+        <v>14.43</v>
+      </c>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="58"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="str">
         <f>CONCATENATE(CLIENTES!$B8," ",CLIENTES!$A8)</f>
-        <v>Roberto Sanchez</v>
-      </c>
-      <c r="B7" s="53"/>
+        <v>Roberto Julio Sanchez</v>
+      </c>
+      <c r="B7" s="52"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="54"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="K7" s="52"/>
       <c r="L7" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="53"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="2"/>
       <c r="T7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y7" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="Y7" s="52"/>
       <c r="Z7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="50">
-        <f t="shared" si="0"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="49">
+        <f>COUNTA($B7:$AF7)</f>
         <v>12</v>
       </c>
-      <c r="AH7" s="50">
-        <f t="shared" si="1"/>
+      <c r="AH7" s="49">
+        <f>COUNTBLANK($B7:$AF7)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="str">
+      <c r="AJ7" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>MODE(AG2:AG8)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="str">
         <f>CONCATENATE(CLIENTES!$B9," ",CLIENTES!$A9)</f>
-        <v>Nino Bravo</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="T8" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD8" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="51">
-        <f t="shared" si="0"/>
+        <v>Nino Antonio Bravo</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="55"/>
+      <c r="S8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="50">
+        <f>COUNTA($B8:$AF8)</f>
         <v>18</v>
       </c>
-      <c r="AH8" s="51">
-        <f t="shared" si="1"/>
+      <c r="AH8" s="50">
+        <f>COUNTBLANK($B8:$AF8)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK8" s="2">
+        <f>MEDIAN(AG2:AG8)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="50">
+        <v>110</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="49">
         <f>COUNTA(C$2:C$8)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="50">
-        <f t="shared" ref="C9:AH9" si="2">COUNTA(E$2:E$8)</f>
+      <c r="D9" s="52"/>
+      <c r="E9" s="49">
+        <f t="shared" ref="E9:AE9" si="0">COUNTA(E$2:E$8)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <f>COUNTA(F$2:F$8)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="50">
-        <f t="shared" si="2"/>
+      <c r="G9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H9" s="50">
-        <f t="shared" si="2"/>
+      <c r="H9" s="49">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" s="50">
-        <f t="shared" si="2"/>
+      <c r="I9" s="49">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J9" s="50">
-        <f t="shared" si="2"/>
+      <c r="J9" s="49">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="50">
-        <f t="shared" si="2"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M9" s="50">
-        <f t="shared" si="2"/>
+      <c r="M9" s="49">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N9" s="50">
-        <f t="shared" si="2"/>
+      <c r="N9" s="49">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O9" s="50">
-        <f t="shared" si="2"/>
+      <c r="O9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P9" s="50">
-        <f t="shared" si="2"/>
+      <c r="P9" s="49">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q9" s="50">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="49">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="50">
-        <f t="shared" si="2"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T9" s="50">
-        <f t="shared" si="2"/>
+      <c r="T9" s="49">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U9" s="50">
-        <f t="shared" si="2"/>
+      <c r="U9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V9" s="50">
-        <f t="shared" si="2"/>
+      <c r="V9" s="49">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="W9" s="50">
-        <f t="shared" si="2"/>
+      <c r="W9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="X9" s="50">
-        <f t="shared" si="2"/>
+      <c r="X9" s="49">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="49">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AA9" s="50">
-        <f t="shared" si="2"/>
+      <c r="AA9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AB9" s="50">
-        <f t="shared" si="2"/>
+      <c r="AB9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AC9" s="50">
-        <f t="shared" si="2"/>
+      <c r="AC9" s="49">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AD9" s="50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AE9" s="50">
-        <f t="shared" si="2"/>
+      <c r="AD9" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="57">
+      <c r="AE9" s="49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="56">
         <f>COUNT(B9:AF9)</f>
         <v>25</v>
       </c>
-      <c r="AH9" s="57">
+      <c r="AH9" s="56">
         <f>COUNTBLANK(B9:AF9)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B12" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B13" s="58" t="s">
-        <v>94</v>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B12" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B13" s="57" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AJ2:AK2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423699E4-0C9C-435A-BF1D-98F61FED6754}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="12" max="12" width="1" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="str">
+        <f>PRESENTISMO!A2</f>
+        <v>Cristian Damian Racedo</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>CLIENTES!D3</f>
+        <v>20-35353535-4</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>LEFT(B2,2)</f>
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>MID(B2,4,8)</f>
+        <v>35353535</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>RIGHT(B2,1)</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>RIGHT(A2,L2-K2)</f>
+        <v>Racedo</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>LEFT(A2,J2-1)</f>
+        <v>Cristian</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>MID(A2,J2+1,K2-(J2+1))</f>
+        <v>Damian</v>
+      </c>
+      <c r="J2" s="2">
+        <f>FIND(" ",A2)</f>
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <f>FIND(" ",A2,J2+1)</f>
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
+        <f>LEN(A2)</f>
+        <v>22</v>
+      </c>
+      <c r="M2" s="65">
+        <f ca="1">$P$5-YEAR(CLIENTES!E3)</f>
+        <v>30</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="64">
+        <f ca="1">NOW()</f>
+        <v>44225.921332291669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>PRESENTISMO!A3</f>
+        <v>Tomas Gonzalo Alvarez</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>CLIENTES!D4</f>
+        <v>24-91234121-7</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C8" si="0">LEFT(B3,2)</f>
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D8" si="1">MID(B3,4,8)</f>
+        <v>91234121</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E8" si="2">RIGHT(B3,1)</f>
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>RIGHT(A3,L3-K3)</f>
+        <v>Alvarez</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>LEFT(A3,J3-1)</f>
+        <v>Tomas</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I8" si="3">MID(A3,J3+1,K3-(J3+1))</f>
+        <v>Gonzalo</v>
+      </c>
+      <c r="J3" s="2">
+        <f>FIND(" ",A3)</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="2">
+        <f>FIND(" ",A3,J3+1)</f>
+        <v>14</v>
+      </c>
+      <c r="L3" s="2">
+        <f>LEN(A3)</f>
+        <v>21</v>
+      </c>
+      <c r="M3" s="65">
+        <f ca="1">$P$5-YEAR(CLIENTES!E4)</f>
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="2">
+        <f ca="1">DAY(P2)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f>PRESENTISMO!A4</f>
+        <v>Joaquin Daniel Carballo</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>CLIENTES!D5</f>
+        <v>29-43123891-4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>43123891</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>RIGHT(A4,L4-K4)</f>
+        <v>Carballo</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>LEFT(A4,J4-1)</f>
+        <v>Joaquin</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Daniel</v>
+      </c>
+      <c r="J4" s="2">
+        <f>FIND(" ",A4)</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
+        <f>FIND(" ",A4,J4+1)</f>
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <f>LEN(A4)</f>
+        <v>23</v>
+      </c>
+      <c r="M4" s="65">
+        <f ca="1">$P$5-YEAR(CLIENTES!E5)</f>
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="2">
+        <f ca="1">MONTH(P2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
+        <f>PRESENTISMO!A5</f>
+        <v>Soledad Aimara Luna</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>CLIENTES!D6</f>
+        <v>24-56481231-4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>56481231</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>RIGHT(A5,L5-K5)</f>
+        <v>Luna</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>LEFT(A5,J5-1)</f>
+        <v>Soledad</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Aimara</v>
+      </c>
+      <c r="J5" s="2">
+        <f>FIND(" ",A5)</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="2">
+        <f>FIND(" ",A5,J5+1)</f>
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <f>LEN(A5)</f>
+        <v>19</v>
+      </c>
+      <c r="M5" s="65">
+        <f ca="1">$P$5-YEAR(CLIENTES!E6)</f>
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="2">
+        <f ca="1">YEAR(P2)</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f>PRESENTISMO!A6</f>
+        <v>Camilo Alberto Sesto</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>CLIENTES!D7</f>
+        <v>30-04819292-2</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>04819292</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>RIGHT(A6,L6-K6)</f>
+        <v>Sesto</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>LEFT(A6,J6-1)</f>
+        <v>Camilo</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Alberto</v>
+      </c>
+      <c r="J6" s="2">
+        <f>FIND(" ",A6)</f>
+        <v>7</v>
+      </c>
+      <c r="K6" s="2">
+        <f>FIND(" ",A6,J6+1)</f>
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <f>LEN(A6)</f>
+        <v>20</v>
+      </c>
+      <c r="M6" s="65">
+        <f ca="1">$P$5-YEAR(CLIENTES!E7)</f>
+        <v>61</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="2">
+        <f ca="1">HOUR(P2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>PRESENTISMO!A7</f>
+        <v>Roberto Julio Sanchez</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>CLIENTES!D8</f>
+        <v>20-06812320-6</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>06812320</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>RIGHT(A7,L7-K7)</f>
+        <v>Sanchez</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>LEFT(A7,J7-1)</f>
+        <v>Roberto</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Julio</v>
+      </c>
+      <c r="J7" s="2">
+        <f>FIND(" ",A7)</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <f>FIND(" ",A7,J7+1)</f>
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
+        <f>LEN(A7)</f>
+        <v>21</v>
+      </c>
+      <c r="M7" s="65">
+        <f ca="1">$P$5-YEAR(CLIENTES!E8)</f>
+        <v>56</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="2">
+        <f ca="1">MINUTE(P2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
+        <f>PRESENTISMO!A8</f>
+        <v>Nino Antonio Bravo</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>CLIENTES!D9</f>
+        <v>20-16237421-4</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>16237421</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>RIGHT(A8,L8-K8)</f>
+        <v>Bravo</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>LEFT(A8,J8-1)</f>
+        <v>Nino</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Antonio</v>
+      </c>
+      <c r="J8" s="2">
+        <f>FIND(" ",A8)</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <f>FIND(" ",A8,J8+1)</f>
+        <v>13</v>
+      </c>
+      <c r="L8" s="2">
+        <f>LEN(A8)</f>
+        <v>18</v>
+      </c>
+      <c r="M8" s="65">
+        <f ca="1">$P$5-YEAR(CLIENTES!E9)</f>
+        <v>40</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="2">
+        <f ca="1">SECOND(P2)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C1379-91E2-4C94-B3FC-ACDC4FB19024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20551699-1766-4FB8-B954-043C3A10153F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
   <si>
     <t>Apellido</t>
   </si>
@@ -381,9 +381,6 @@
     <t>DERECHA(TEXTO; CANTIDAD CARACTERES): extrae la cantidad de caracteres especificada de derecha a izquierda de un texto</t>
   </si>
   <si>
-    <t>EXTRAE(TEXTO; POSICION INICIAL; CANTIDAD): extrae de un texto la cantidad de caracteres especificada, a partir de la posicion indicada</t>
-  </si>
-  <si>
     <t>ENCONTRAR(TEXTO_BUSCADO; TEXTO): Busca el texto indicado entre comillas y retorna la posicion del mismo, en caso que exista</t>
   </si>
   <si>
@@ -448,6 +445,30 @@
   </si>
   <si>
     <t>SEGUNDO</t>
+  </si>
+  <si>
+    <t>EXTRAE(TEXTO; P.INICIAL; CANTIDAD): extrae la cantidad de caracteres especificada de un texto a partir de la posicion indicada</t>
+  </si>
+  <si>
+    <t>cochabamba</t>
+  </si>
+  <si>
+    <t>la rioja</t>
+  </si>
+  <si>
+    <t>rio negro</t>
+  </si>
+  <si>
+    <t>Adrogue</t>
+  </si>
+  <si>
+    <t>Banfield</t>
+  </si>
+  <si>
+    <t>Moron</t>
+  </si>
+  <si>
+    <t>TENDENCIA</t>
   </si>
 </sst>
 </file>
@@ -459,8 +480,8 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -661,7 +682,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -731,31 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,16 +783,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1122,8 +1146,8 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1156,8 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
@@ -1145,26 +1170,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="J1" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="34"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1254,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1296,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -1338,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1380,7 +1405,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
@@ -1391,9 +1416,15 @@
       <c r="E7" s="4">
         <v>22224</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43921042</v>
+      </c>
       <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1438,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1418,9 +1449,15 @@
       <c r="E8" s="4">
         <v>23887</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="2">
+        <v>19823413</v>
+      </c>
       <c r="J8" s="10" t="s">
         <v>28</v>
       </c>
@@ -1434,20 +1471,26 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E9" s="4">
         <v>29635</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10941234</v>
+      </c>
       <c r="J9" s="10" t="s">
         <v>29</v>
       </c>
@@ -1529,25 +1572,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -1811,78 +1854,78 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="L8" s="41" t="s">
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="L8" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1900,17 +1943,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5FDB7-88AC-43F8-B859-2745D932DEBA}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="3.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.7109375" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
@@ -1920,117 +1963,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="43">
         <v>44197</v>
       </c>
-      <c r="C1" s="44">
+      <c r="C1" s="36">
         <v>44198</v>
       </c>
-      <c r="D1" s="51">
+      <c r="D1" s="43">
         <v>44199</v>
       </c>
-      <c r="E1" s="44">
+      <c r="E1" s="36">
         <v>44200</v>
       </c>
-      <c r="F1" s="44">
+      <c r="F1" s="36">
         <v>44201</v>
       </c>
-      <c r="G1" s="44">
+      <c r="G1" s="36">
         <v>44202</v>
       </c>
-      <c r="H1" s="44">
+      <c r="H1" s="36">
         <v>44203</v>
       </c>
-      <c r="I1" s="44">
+      <c r="I1" s="36">
         <v>44204</v>
       </c>
-      <c r="J1" s="44">
+      <c r="J1" s="36">
         <v>44205</v>
       </c>
-      <c r="K1" s="51">
+      <c r="K1" s="43">
         <v>44206</v>
       </c>
-      <c r="L1" s="44">
+      <c r="L1" s="36">
         <v>44207</v>
       </c>
-      <c r="M1" s="44">
+      <c r="M1" s="36">
         <v>44208</v>
       </c>
-      <c r="N1" s="44">
+      <c r="N1" s="36">
         <v>44209</v>
       </c>
-      <c r="O1" s="44">
+      <c r="O1" s="36">
         <v>44210</v>
       </c>
-      <c r="P1" s="44">
+      <c r="P1" s="36">
         <v>44211</v>
       </c>
-      <c r="Q1" s="44">
+      <c r="Q1" s="36">
         <v>44212</v>
       </c>
-      <c r="R1" s="51">
+      <c r="R1" s="43">
         <v>44213</v>
       </c>
-      <c r="S1" s="44">
+      <c r="S1" s="36">
         <v>44214</v>
       </c>
-      <c r="T1" s="44">
+      <c r="T1" s="36">
         <v>44215</v>
       </c>
-      <c r="U1" s="44">
+      <c r="U1" s="36">
         <v>44216</v>
       </c>
-      <c r="V1" s="44">
+      <c r="V1" s="36">
         <v>44217</v>
       </c>
-      <c r="W1" s="44">
+      <c r="W1" s="36">
         <v>44218</v>
       </c>
-      <c r="X1" s="44">
+      <c r="X1" s="36">
         <v>44219</v>
       </c>
-      <c r="Y1" s="51">
+      <c r="Y1" s="43">
         <v>44220</v>
       </c>
-      <c r="Z1" s="44">
+      <c r="Z1" s="36">
         <v>44221</v>
       </c>
-      <c r="AA1" s="44">
+      <c r="AA1" s="36">
         <v>44222</v>
       </c>
-      <c r="AB1" s="44">
+      <c r="AB1" s="36">
         <v>44223</v>
       </c>
-      <c r="AC1" s="44">
+      <c r="AC1" s="36">
         <v>44224</v>
       </c>
-      <c r="AD1" s="44">
+      <c r="AD1" s="36">
         <v>44225</v>
       </c>
-      <c r="AE1" s="44">
+      <c r="AE1" s="36">
         <v>44226</v>
       </c>
-      <c r="AF1" s="51">
+      <c r="AF1" s="43">
         <v>44227</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AG1" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="46" t="s">
+      <c r="AH1" s="38" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="str">
+      <c r="A2" s="37" t="str">
         <f>CONCATENATE(CLIENTES!$B3," ",CLIENTES!$A3)</f>
         <v>Cristian Damian Racedo</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="52"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2" t="s">
         <v>83</v>
       </c>
@@ -2045,7 +2088,7 @@
       <c r="J2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="2" t="s">
         <v>83</v>
       </c>
@@ -2060,7 +2103,7 @@
       <c r="Q2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="52"/>
+      <c r="R2" s="44"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
         <v>83</v>
@@ -2075,7 +2118,7 @@
       <c r="X2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="52"/>
+      <c r="Y2" s="44"/>
       <c r="Z2" s="2" t="s">
         <v>83</v>
       </c>
@@ -2092,28 +2135,28 @@
       <c r="AE2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="49">
-        <f>COUNTA($B2:$AF2)</f>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="41">
+        <f t="shared" ref="AG2:AG8" si="0">COUNTA($B2:$AF2)</f>
         <v>17</v>
       </c>
-      <c r="AH2" s="49">
-        <f>COUNTBLANK($B2:$AF2)</f>
+      <c r="AH2" s="41">
+        <f t="shared" ref="AH2:AH8" si="1">COUNTBLANK($B2:$AF2)</f>
         <v>14</v>
       </c>
-      <c r="AJ2" s="35" t="s">
+      <c r="AJ2" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="37"/>
+      <c r="AK2" s="60"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="str">
+      <c r="A3" s="37" t="str">
         <f>CONCATENATE(CLIENTES!$B4," ",CLIENTES!$A4)</f>
         <v>Tomas Gonzalo Alvarez</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="53"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
@@ -2122,7 +2165,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="52"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
@@ -2135,7 +2178,7 @@
       <c r="Q3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="52"/>
+      <c r="R3" s="44"/>
       <c r="S3" s="2" t="s">
         <v>83</v>
       </c>
@@ -2148,7 +2191,7 @@
       <c r="X3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="52"/>
+      <c r="Y3" s="44"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="2" t="s">
         <v>83</v>
@@ -2159,16 +2202,16 @@
       <c r="AE3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="49">
-        <f>COUNTA($B3:$AF3)</f>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="41">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AH3" s="49">
-        <f>COUNTBLANK($B3:$AF3)</f>
+      <c r="AH3" s="41">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AJ3" s="60" t="s">
+      <c r="AJ3" s="66" t="s">
         <v>93</v>
       </c>
       <c r="AK3" s="2">
@@ -2177,15 +2220,15 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="str">
+      <c r="A4" s="37" t="str">
         <f>CONCATENATE(CLIENTES!$B5," ",CLIENTES!$A5)</f>
         <v>Joaquin Daniel Carballo</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -2200,7 +2243,7 @@
       <c r="J4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="2" t="s">
         <v>83</v>
       </c>
@@ -2215,7 +2258,7 @@
       <c r="Q4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="52"/>
+      <c r="R4" s="44"/>
       <c r="S4" s="2" t="s">
         <v>83</v>
       </c>
@@ -2230,7 +2273,7 @@
       <c r="X4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="52"/>
+      <c r="Y4" s="44"/>
       <c r="Z4" s="3" t="s">
         <v>83</v>
       </c>
@@ -2243,16 +2286,16 @@
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="49">
-        <f>COUNTA($B4:$AF4)</f>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="41">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AH4" s="49">
-        <f>COUNTBLANK($B4:$AF4)</f>
+      <c r="AH4" s="41">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AJ4" s="60" t="s">
+      <c r="AJ4" s="65" t="s">
         <v>94</v>
       </c>
       <c r="AK4" s="2">
@@ -2261,15 +2304,15 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="str">
+      <c r="A5" s="37" t="str">
         <f>CONCATENATE(CLIENTES!$B6," ",CLIENTES!$A6)</f>
         <v>Soledad Aimara Luna</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>83</v>
@@ -2284,7 +2327,7 @@
       <c r="J5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="52"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>83</v>
@@ -2295,7 +2338,7 @@
         <v>83</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="52"/>
+      <c r="R5" s="44"/>
       <c r="S5" s="2" t="s">
         <v>83</v>
       </c>
@@ -2310,7 +2353,7 @@
       <c r="X5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="52"/>
+      <c r="Y5" s="44"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -2319,33 +2362,33 @@
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="49">
-        <f>COUNTA($B5:$AF5)</f>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="41">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH5" s="49">
-        <f>COUNTBLANK($B5:$AF5)</f>
+      <c r="AH5" s="41">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ5" s="60" t="s">
+      <c r="AJ5" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AK5" s="61">
+      <c r="AK5" s="52">
         <f>AVERAGE(AG2:AG8)</f>
         <v>14.428571428571429</v>
       </c>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="58"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="50"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="str">
+      <c r="A6" s="37" t="str">
         <f>CONCATENATE(CLIENTES!$B7," ",CLIENTES!$A7)</f>
         <v>Camilo Alberto Sesto</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="53"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
@@ -2360,7 +2403,7 @@
       <c r="J6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="2" t="s">
         <v>83</v>
       </c>
@@ -2375,7 +2418,7 @@
       <c r="Q6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="52"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="2"/>
       <c r="T6" s="5" t="s">
         <v>83</v>
@@ -2390,7 +2433,7 @@
       <c r="X6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="52"/>
+      <c r="Y6" s="44"/>
       <c r="Z6" s="5" t="s">
         <v>83</v>
       </c>
@@ -2407,33 +2450,33 @@
       <c r="AE6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="49">
-        <f>COUNTA($B6:$AF6)</f>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="41">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AH6" s="49">
-        <f>COUNTBLANK($B6:$AF6)</f>
+      <c r="AH6" s="41">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AJ6" s="60" t="s">
+      <c r="AJ6" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" s="62">
+      <c r="AK6" s="53">
         <f>ROUND(AK5,2)</f>
         <v>14.43</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="58"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="50"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="str">
+      <c r="A7" s="37" t="str">
         <f>CONCATENATE(CLIENTES!$B8," ",CLIENTES!$A8)</f>
         <v>Roberto Julio Sanchez</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>83</v>
@@ -2446,7 +2489,7 @@
       <c r="J7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="2" t="s">
         <v>83</v>
       </c>
@@ -2459,7 +2502,7 @@
         <v>83</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="52"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="2"/>
       <c r="T7" s="5" t="s">
         <v>83</v>
@@ -2472,7 +2515,7 @@
       <c r="X7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y7" s="52"/>
+      <c r="Y7" s="44"/>
       <c r="Z7" s="5" t="s">
         <v>83</v>
       </c>
@@ -2485,16 +2528,16 @@
         <v>83</v>
       </c>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="49">
-        <f>COUNTA($B7:$AF7)</f>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="41">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH7" s="49">
-        <f>COUNTBLANK($B7:$AF7)</f>
+      <c r="AH7" s="41">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ7" s="60" t="s">
+      <c r="AJ7" s="65" t="s">
         <v>91</v>
       </c>
       <c r="AK7" s="2">
@@ -2503,86 +2546,86 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="str">
+      <c r="A8" s="37" t="str">
         <f>CONCATENATE(CLIENTES!$B9," ",CLIENTES!$A9)</f>
         <v>Nino Antonio Bravo</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="55"/>
-      <c r="S8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="50">
-        <f>COUNTA($B8:$AF8)</f>
+      <c r="B8" s="47"/>
+      <c r="C8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="47"/>
+      <c r="S8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="42">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AH8" s="50">
-        <f>COUNTBLANK($B8:$AF8)</f>
+      <c r="AH8" s="42">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AJ8" s="63" t="s">
+      <c r="AJ8" s="65" t="s">
         <v>92</v>
       </c>
       <c r="AK8" s="2">
@@ -2590,139 +2633,144 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="49">
+    <row r="9" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="41">
         <f>COUNTA(C$2:C$8)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="49">
-        <f t="shared" ref="E9:AE9" si="0">COUNTA(E$2:E$8)</f>
+      <c r="D9" s="44"/>
+      <c r="E9" s="41">
+        <f t="shared" ref="E9:AE9" si="2">COUNTA(E$2:E$8)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="41">
         <f>COUNTA(F$2:F$8)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="49">
-        <f t="shared" si="0"/>
+      <c r="G9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H9" s="49">
-        <f t="shared" si="0"/>
+      <c r="H9" s="41">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I9" s="49">
-        <f t="shared" si="0"/>
+      <c r="I9" s="41">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J9" s="49">
-        <f t="shared" si="0"/>
+      <c r="J9" s="41">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="49">
-        <f t="shared" si="0"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M9" s="49">
-        <f t="shared" si="0"/>
+      <c r="M9" s="41">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N9" s="49">
-        <f t="shared" si="0"/>
+      <c r="N9" s="41">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O9" s="49">
-        <f t="shared" si="0"/>
+      <c r="O9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P9" s="49">
-        <f t="shared" si="0"/>
+      <c r="P9" s="41">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q9" s="49">
-        <f t="shared" si="0"/>
+      <c r="Q9" s="41">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R9" s="52"/>
-      <c r="S9" s="49">
-        <f t="shared" si="0"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T9" s="49">
-        <f t="shared" si="0"/>
+      <c r="T9" s="41">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U9" s="49">
-        <f t="shared" si="0"/>
+      <c r="U9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="V9" s="49">
-        <f t="shared" si="0"/>
+      <c r="V9" s="41">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W9" s="49">
-        <f t="shared" si="0"/>
+      <c r="W9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="X9" s="49">
-        <f t="shared" si="0"/>
+      <c r="X9" s="41">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="49">
-        <f t="shared" si="0"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="41">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AA9" s="49">
-        <f t="shared" si="0"/>
+      <c r="AA9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB9" s="49">
-        <f t="shared" si="0"/>
+      <c r="AB9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AC9" s="49">
-        <f t="shared" si="0"/>
+      <c r="AC9" s="41">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AD9" s="49">
-        <f t="shared" si="0"/>
+      <c r="AD9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AE9" s="49">
-        <f t="shared" si="0"/>
+      <c r="AE9" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="56">
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="48">
         <f>COUNT(B9:AF9)</f>
         <v>25</v>
       </c>
-      <c r="AH9" s="56">
+      <c r="AH9" s="48">
         <f>COUNTBLANK(B9:AF9)</f>
         <v>6</v>
       </c>
-      <c r="AJ9"/>
-      <c r="AK9"/>
+      <c r="AJ9" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK9" s="2">
+        <f>TREND(AG2:AG8)</f>
+        <v>13.357142857142859</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="49" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="49" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2739,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423699E4-0C9C-435A-BF1D-98F61FED6754}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,9 +2802,8 @@
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" customWidth="1"/>
-    <col min="12" max="12" width="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="12" width="3.140625" customWidth="1"/>
     <col min="14" max="14" width="2.85546875" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2784,26 +2831,26 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="25" t="s">
+      <c r="O1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="P1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44225</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2828,11 +2875,11 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>RIGHT(A2,L2-K2)</f>
+        <f t="shared" ref="G2:G8" si="0">RIGHT(A2,L2-K2)</f>
         <v>Racedo</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f>LEFT(A2,J2-1)</f>
+        <f t="shared" ref="H2:H8" si="1">LEFT(A2,J2-1)</f>
         <v>Cristian</v>
       </c>
       <c r="I2" s="2" t="str">
@@ -2840,27 +2887,27 @@
         <v>Damian</v>
       </c>
       <c r="J2" s="2">
-        <f>FIND(" ",A2)</f>
+        <f t="shared" ref="J2:J8" si="2">FIND(" ",A2)</f>
         <v>9</v>
       </c>
       <c r="K2" s="2">
-        <f>FIND(" ",A2,J2+1)</f>
+        <f t="shared" ref="K2:K8" si="3">FIND(" ",A2,J2+1)</f>
         <v>16</v>
       </c>
       <c r="L2" s="2">
-        <f>LEN(A2)</f>
+        <f t="shared" ref="L2:L8" si="4">LEN(A2)</f>
         <v>22</v>
       </c>
-      <c r="M2" s="65">
+      <c r="M2" s="55">
         <f ca="1">$P$5-YEAR(CLIENTES!E3)</f>
         <v>30</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" s="64">
+        <v>123</v>
+      </c>
+      <c r="P2" s="54">
         <f ca="1">NOW()</f>
-        <v>44225.921332291669</v>
+        <v>44232.783868171296</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2873,51 +2920,51 @@
         <v>24-91234121-7</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C8" si="0">LEFT(B3,2)</f>
+        <f t="shared" ref="C3:C8" si="5">LEFT(B3,2)</f>
         <v>24</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D8" si="1">MID(B3,4,8)</f>
+        <f t="shared" ref="D3:D8" si="6">MID(B3,4,8)</f>
         <v>91234121</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E8" si="2">RIGHT(B3,1)</f>
+        <f t="shared" ref="E3:E8" si="7">RIGHT(B3,1)</f>
         <v>7</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>RIGHT(A3,L3-K3)</f>
+        <f t="shared" si="0"/>
         <v>Alvarez</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>LEFT(A3,J3-1)</f>
+        <f t="shared" si="1"/>
         <v>Tomas</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I8" si="3">MID(A3,J3+1,K3-(J3+1))</f>
+        <f t="shared" ref="I3:I8" si="8">MID(A3,J3+1,K3-(J3+1))</f>
         <v>Gonzalo</v>
       </c>
       <c r="J3" s="2">
-        <f>FIND(" ",A3)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K3" s="2">
-        <f>FIND(" ",A3,J3+1)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="L3" s="2">
-        <f>LEN(A3)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="55">
         <f ca="1">$P$5-YEAR(CLIENTES!E4)</f>
         <v>51</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P3" s="2">
         <f ca="1">DAY(P2)</f>
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2930,51 +2977,51 @@
         <v>29-43123891-4</v>
       </c>
       <c r="C4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>43123891</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="str">
+        <v>Carballo</v>
+      </c>
+      <c r="H4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>43123891</v>
-      </c>
-      <c r="E4" s="2" t="str">
+        <v>Joaquin</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Daniel</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f>RIGHT(A4,L4-K4)</f>
-        <v>Carballo</v>
-      </c>
-      <c r="H4" s="2" t="str">
-        <f>LEFT(A4,J4-1)</f>
-        <v>Joaquin</v>
-      </c>
-      <c r="I4" s="2" t="str">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="3"/>
-        <v>Daniel</v>
-      </c>
-      <c r="J4" s="2">
-        <f>FIND(" ",A4)</f>
-        <v>8</v>
-      </c>
-      <c r="K4" s="2">
-        <f>FIND(" ",A4,J4+1)</f>
         <v>15</v>
       </c>
       <c r="L4" s="2">
-        <f>LEN(A4)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="55">
         <f ca="1">$P$5-YEAR(CLIENTES!E5)</f>
         <v>26</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P4" s="2">
         <f ca="1">MONTH(P2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2987,47 +3034,47 @@
         <v>24-56481231-4</v>
       </c>
       <c r="C5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>56481231</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="str">
+        <v>Luna</v>
+      </c>
+      <c r="H5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>56481231</v>
-      </c>
-      <c r="E5" s="2" t="str">
+        <v>Soledad</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Aimara</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f>RIGHT(A5,L5-K5)</f>
-        <v>Luna</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f>LEFT(A5,J5-1)</f>
-        <v>Soledad</v>
-      </c>
-      <c r="I5" s="2" t="str">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>Aimara</v>
-      </c>
-      <c r="J5" s="2">
-        <f>FIND(" ",A5)</f>
-        <v>8</v>
-      </c>
-      <c r="K5" s="2">
-        <f>FIND(" ",A5,J5+1)</f>
         <v>15</v>
       </c>
       <c r="L5" s="2">
-        <f>LEN(A5)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="55">
         <f ca="1">$P$5-YEAR(CLIENTES!E6)</f>
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P5" s="2">
         <f ca="1">YEAR(P2)</f>
@@ -3044,51 +3091,51 @@
         <v>30-04819292-2</v>
       </c>
       <c r="C6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>04819292</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="str">
+        <v>Sesto</v>
+      </c>
+      <c r="H6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>04819292</v>
-      </c>
-      <c r="E6" s="2" t="str">
+        <v>Camilo</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Alberto</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f>RIGHT(A6,L6-K6)</f>
-        <v>Sesto</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f>LEFT(A6,J6-1)</f>
-        <v>Camilo</v>
-      </c>
-      <c r="I6" s="2" t="str">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>Alberto</v>
-      </c>
-      <c r="J6" s="2">
-        <f>FIND(" ",A6)</f>
-        <v>7</v>
-      </c>
-      <c r="K6" s="2">
-        <f>FIND(" ",A6,J6+1)</f>
         <v>15</v>
       </c>
       <c r="L6" s="2">
-        <f>LEN(A6)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="55">
         <f ca="1">$P$5-YEAR(CLIENTES!E7)</f>
         <v>61</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P6" s="2">
         <f ca="1">HOUR(P2)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3101,51 +3148,51 @@
         <v>20-06812320-6</v>
       </c>
       <c r="C7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>06812320</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="str">
+        <v>Sanchez</v>
+      </c>
+      <c r="H7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>06812320</v>
-      </c>
-      <c r="E7" s="2" t="str">
+        <v>Roberto</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Julio</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f>RIGHT(A7,L7-K7)</f>
-        <v>Sanchez</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f>LEFT(A7,J7-1)</f>
-        <v>Roberto</v>
-      </c>
-      <c r="I7" s="2" t="str">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>Julio</v>
-      </c>
-      <c r="J7" s="2">
-        <f>FIND(" ",A7)</f>
-        <v>8</v>
-      </c>
-      <c r="K7" s="2">
-        <f>FIND(" ",A7,J7+1)</f>
         <v>14</v>
       </c>
       <c r="L7" s="2">
-        <f>LEN(A7)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="55">
         <f ca="1">$P$5-YEAR(CLIENTES!E8)</f>
         <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">MINUTE(P2)</f>
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3158,79 +3205,146 @@
         <v>20-16237421-4</v>
       </c>
       <c r="C8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>16237421</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="str">
+        <v>Bravo</v>
+      </c>
+      <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>16237421</v>
-      </c>
-      <c r="E8" s="2" t="str">
+        <v>Nino</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Antonio</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f>RIGHT(A8,L8-K8)</f>
-        <v>Bravo</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f>LEFT(A8,J8-1)</f>
-        <v>Nino</v>
-      </c>
-      <c r="I8" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>Antonio</v>
-      </c>
-      <c r="J8" s="2">
-        <f>FIND(" ",A8)</f>
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <f>FIND(" ",A8,J8+1)</f>
         <v>13</v>
       </c>
       <c r="L8" s="2">
-        <f>LEN(A8)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="55">
         <f ca="1">$P$5-YEAR(CLIENTES!E9)</f>
         <v>40</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P8" s="2">
         <f ca="1">SECOND(P2)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="64" t="s">
         <v>106</v>
       </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="64" t="s">
         <v>107</v>
       </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
+      <c r="A14" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:M14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20551699-1766-4FB8-B954-043C3A10153F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E9AAF1-11C6-4B6B-B37E-4FDBC9D3D2B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>CUIT</t>
   </si>
   <si>
-    <t>DOCUMENTO</t>
-  </si>
-  <si>
     <t>VERIF</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>ASIST DIARIAS</t>
   </si>
   <si>
-    <t>longitud</t>
-  </si>
-  <si>
     <t>LARGO(TEXTO): retorna la cantidad total de caracteres dentro del texto especificado</t>
   </si>
   <si>
@@ -414,12 +408,6 @@
     <t>Nino Antonio</t>
   </si>
   <si>
-    <t>separa_2</t>
-  </si>
-  <si>
-    <t>separa_1</t>
-  </si>
-  <si>
     <t>EDAD</t>
   </si>
   <si>
@@ -469,6 +457,18 @@
   </si>
   <si>
     <t>TENDENCIA</t>
+  </si>
+  <si>
+    <t>NUM. DOC.</t>
+  </si>
+  <si>
+    <t>long.</t>
+  </si>
+  <si>
+    <t>sep_1</t>
+  </si>
+  <si>
+    <t>sep_2</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -819,6 +819,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1279,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1321,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -1363,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1405,7 +1408,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
@@ -1417,10 +1420,10 @@
         <v>22224</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H7" s="2">
         <v>43921042</v>
@@ -1438,7 +1441,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1450,10 +1453,10 @@
         <v>23887</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H8" s="2">
         <v>19823413</v>
@@ -1471,7 +1474,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
@@ -1483,10 +1486,10 @@
         <v>29635</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H9" s="2">
         <v>10941234</v>
@@ -1943,11 +1946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5FDB7-88AC-43F8-B859-2745D932DEBA}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK9" sqref="AK9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="9" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="41">
@@ -2752,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="AJ9" s="65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK9" s="2">
         <f>TREND(AG2:AG8)</f>
@@ -2787,66 +2790,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423699E4-0C9C-435A-BF1D-98F61FED6754}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:M13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="12" width="3.140625" customWidth="1"/>
+    <col min="10" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>122</v>
+      <c r="J1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>118</v>
       </c>
       <c r="P1" s="4">
         <f ca="1">TODAY()</f>
@@ -2902,12 +2907,12 @@
         <f ca="1">$P$5-YEAR(CLIENTES!E3)</f>
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>123</v>
+      <c r="O2" s="67" t="s">
+        <v>119</v>
       </c>
       <c r="P2" s="54">
         <f ca="1">NOW()</f>
-        <v>44232.783868171296</v>
+        <v>44232.790279745372</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2959,8 +2964,8 @@
         <f ca="1">$P$5-YEAR(CLIENTES!E4)</f>
         <v>51</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>124</v>
+      <c r="O3" s="67" t="s">
+        <v>120</v>
       </c>
       <c r="P3" s="2">
         <f ca="1">DAY(P2)</f>
@@ -3016,8 +3021,8 @@
         <f ca="1">$P$5-YEAR(CLIENTES!E5)</f>
         <v>26</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>125</v>
+      <c r="O4" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="P4" s="2">
         <f ca="1">MONTH(P2)</f>
@@ -3073,8 +3078,8 @@
         <f ca="1">$P$5-YEAR(CLIENTES!E6)</f>
         <v>22</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>126</v>
+      <c r="O5" s="67" t="s">
+        <v>122</v>
       </c>
       <c r="P5" s="2">
         <f ca="1">YEAR(P2)</f>
@@ -3130,8 +3135,8 @@
         <f ca="1">$P$5-YEAR(CLIENTES!E7)</f>
         <v>61</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>127</v>
+      <c r="O6" s="67" t="s">
+        <v>123</v>
       </c>
       <c r="P6" s="2">
         <f ca="1">HOUR(P2)</f>
@@ -3187,12 +3192,12 @@
         <f ca="1">$P$5-YEAR(CLIENTES!E8)</f>
         <v>56</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>128</v>
+      <c r="O7" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">MINUTE(P2)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3244,17 +3249,17 @@
         <f ca="1">$P$5-YEAR(CLIENTES!E9)</f>
         <v>40</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>129</v>
+      <c r="O8" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="P8" s="2">
         <f ca="1">SECOND(P2)</f>
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -3271,7 +3276,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -3288,7 +3293,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
@@ -3305,7 +3310,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -3322,7 +3327,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>

--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E9AAF1-11C6-4B6B-B37E-4FDBC9D3D2B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3FF78-F31E-43A9-8BD5-BED09BCFE862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +529,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -677,12 +685,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -823,8 +832,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
@@ -1149,7 +1160,7 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +1564,7 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1891,6 +1902,7 @@
       <c r="O10" s="63"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="68"/>
       <c r="G11" s="62"/>
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
@@ -2790,7 +2802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423699E4-0C9C-435A-BF1D-98F61FED6754}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2912,7 +2924,7 @@
       </c>
       <c r="P2" s="54">
         <f ca="1">NOW()</f>
-        <v>44232.790279745372</v>
+        <v>44232.791452430552</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3197,7 +3209,7 @@
       </c>
       <c r="P7" s="2">
         <f ca="1">MINUTE(P2)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3254,7 +3266,7 @@
       </c>
       <c r="P8" s="2">
         <f ca="1">SECOND(P2)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">

--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3FF78-F31E-43A9-8BD5-BED09BCFE862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C563C9CD-3BF8-4EE8-B8F0-D1DB46FA4C63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
-    <sheet name="VENTAS" sheetId="2" r:id="rId2"/>
-    <sheet name="PRESENTISMO" sheetId="3" r:id="rId3"/>
-    <sheet name="FACTURACION" sheetId="4" r:id="rId4"/>
+    <sheet name="INDICE" sheetId="5" r:id="rId1"/>
+    <sheet name="CLIENTES" sheetId="1" r:id="rId2"/>
+    <sheet name="VENTAS" sheetId="2" r:id="rId3"/>
+    <sheet name="PRESENTISMO" sheetId="3" r:id="rId4"/>
+    <sheet name="FACTURACION" sheetId="4" r:id="rId5"/>
+    <sheet name="NOTAS" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CLIENTES!$A$2:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FACTURACION!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NOTAS!$A$1:$F$8</definedName>
     <definedName name="cant">VENTAS!$C:$C</definedName>
     <definedName name="precio">VENTAS!$D:$D</definedName>
   </definedNames>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
   <si>
     <t>Apellido</t>
   </si>
@@ -300,12 +305,6 @@
     <t>lc</t>
   </si>
   <si>
-    <t>Empleado</t>
-  </si>
-  <si>
-    <t>Cristian Damian</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -402,9 +401,6 @@
     <t>Camilo Alberto</t>
   </si>
   <si>
-    <t>Roberto Julio</t>
-  </si>
-  <si>
     <t>Nino Antonio</t>
   </si>
   <si>
@@ -469,6 +465,237 @@
   </si>
   <si>
     <t>sep_2</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Presentismo</t>
+  </si>
+  <si>
+    <t>Facturacion</t>
+  </si>
+  <si>
+    <t>TABLA DE CONTENIDOS (HOJAS DE LA PLANILLA)</t>
+  </si>
+  <si>
+    <t>Atajos</t>
+  </si>
+  <si>
+    <t>Descargar</t>
+  </si>
+  <si>
+    <t>DOCUMENTOS EXTERNOS</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>CRISTIÁN</t>
+  </si>
+  <si>
+    <t>Roberto Miguel</t>
+  </si>
+  <si>
+    <t>Alumnos</t>
+  </si>
+  <si>
+    <t>tri 1</t>
+  </si>
+  <si>
+    <t>tri 2</t>
+  </si>
+  <si>
+    <t>tri 3</t>
+  </si>
+  <si>
+    <t>situacion</t>
+  </si>
+  <si>
+    <t>Cristián Damián</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>Es igual a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No es igual a </t>
+  </si>
+  <si>
+    <t>Comienza por</t>
+  </si>
+  <si>
+    <t>Termina con</t>
+  </si>
+  <si>
+    <t>Contiene</t>
+  </si>
+  <si>
+    <t>No contiene</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>="c"</t>
+  </si>
+  <si>
+    <t>!="c"</t>
+  </si>
+  <si>
+    <t>="c*"</t>
+  </si>
+  <si>
+    <t>="*c*"</t>
+  </si>
+  <si>
+    <t>="*c"</t>
+  </si>
+  <si>
+    <t>!="*c*"</t>
+  </si>
+  <si>
+    <t>#¡VALOR!</t>
+  </si>
+  <si>
+    <t>Tomas; Soledad; Nino</t>
+  </si>
+  <si>
+    <t>Cristian; Carballo; Camilo; Sanchez</t>
+  </si>
+  <si>
+    <t>No es igual a</t>
+  </si>
+  <si>
+    <t>Mayor que</t>
+  </si>
+  <si>
+    <t>Mayor o igual</t>
+  </si>
+  <si>
+    <t>Menor que</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menor o igual </t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>=8</t>
+  </si>
+  <si>
+    <t>!=8; &lt;&gt;8</t>
+  </si>
+  <si>
+    <t>Cristian; Soledad</t>
+  </si>
+  <si>
+    <t>&gt;8</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>&gt;=8</t>
+  </si>
+  <si>
+    <t>Cristian; Soledad; Camilo</t>
+  </si>
+  <si>
+    <t>&lt;8</t>
+  </si>
+  <si>
+    <t>Tomas; Joaquin; Roberto; Nino</t>
+  </si>
+  <si>
+    <t>&lt;=8</t>
+  </si>
+  <si>
+    <t>Todos excepto Camilo</t>
+  </si>
+  <si>
+    <t>Todos excepto Cristian; Soledad</t>
+  </si>
+  <si>
+    <t>Entre</t>
+  </si>
+  <si>
+    <t>&gt;=6 &amp;&amp; &lt;=9</t>
+  </si>
+  <si>
+    <t>Cristian; Soledad; Camilo; Roberto</t>
+  </si>
+  <si>
+    <t>Filtros de Texto (Nombre)</t>
+  </si>
+  <si>
+    <t>Filtros de Numero (Trimestre 1)</t>
+  </si>
+  <si>
+    <t>Resultado Obtenido</t>
+  </si>
+  <si>
+    <t>A &gt;=75% (F)</t>
+  </si>
+  <si>
+    <t>A &gt;=75% (V)</t>
+  </si>
+  <si>
+    <t>tri &gt;=7 (F)</t>
+  </si>
+  <si>
+    <t>tri &gt;=7 (V)</t>
+  </si>
+  <si>
+    <t>no cumple(F)</t>
+  </si>
+  <si>
+    <t>cumple(V)</t>
+  </si>
+  <si>
+    <t>ven&gt;$100 (F)</t>
+  </si>
+  <si>
+    <t>cant &gt;= 50 (V)</t>
+  </si>
+  <si>
+    <t>cant &gt;= 50 (F)</t>
+  </si>
+  <si>
+    <t>ven&gt; $100 (V)</t>
+  </si>
+  <si>
+    <t>cumple (V)</t>
+  </si>
+  <si>
+    <t>no cumple (F)</t>
+  </si>
+  <si>
+    <t>&amp;&amp; AND Y(...)</t>
+  </si>
+  <si>
+    <t>|| OR O(...)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +806,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -667,19 +906,87 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -691,7 +998,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -735,11 +1042,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -761,7 +1064,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,21 +1077,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -833,6 +1138,86 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -856,6 +1241,561 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>630621</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Gráfico 7" descr="Usuario">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7376B7F8-9A6E-4888-82CD-C94FF4460689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="164224" y="361293"/>
+          <a:ext cx="466397" cy="466397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157656</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624053</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Gráfico 9" descr="Monedas">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54397F09-8943-4A6E-88A8-C0BDF1F792D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="913087" y="367862"/>
+          <a:ext cx="466397" cy="466397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39412</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624051</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Gráfico 11" descr="Maestro">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6AE3BD-60C5-4701-8EF5-4AB72BF801B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1556843" y="295603"/>
+          <a:ext cx="584639" cy="584639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>131379</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Gráfico 13" descr="Lista">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939E22EB-3FC9-424C-8A92-366642A52D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2410810" y="341586"/>
+          <a:ext cx="459828" cy="459828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72959</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683171</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>216776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Gráfico 15" descr="Máquina de escribir">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF60568-7BB1-4E89-9624-A07626875AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="36486"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72959" y="1392621"/>
+          <a:ext cx="610212" cy="387569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137948</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564931</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>229914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Gráfico 19" descr="Flecha con giro a la derecha">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1300566-47CE-4080-A6CF-A0684CD0BCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="893379" y="1366345"/>
+          <a:ext cx="426983" cy="426983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78828</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>688627</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Gráfico 21" descr="Calendario diario">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F80BA5D-F07D-4577-970F-ECE249C020C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8164" t="35714" r="8163" b="10205"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1596259" y="1366345"/>
+          <a:ext cx="609799" cy="394138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>11345</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>322386</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC0430F-D94C-4AE6-B203-550B6B1B80E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11272826" y="491809"/>
+          <a:ext cx="1776425" cy="1517196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89736</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>437889</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>420415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC08807-9A24-4B9A-A20D-2826972ABA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="32444" y1="26222" x2="23556" y2="72444"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89736" y="72262"/>
+          <a:ext cx="348153" cy="348153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120014</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7772400" cy="233205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB78018-5C99-4D1B-8F7C-28005E21539F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5093804" y="6704688"/>
+          <a:ext cx="7772400" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1154,402 +2094,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F616AB2-30A2-4F4D-80E0-1A49BF5D20D5}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="CLIENTES!A1" display="Clientes" xr:uid="{1768E87E-2F19-4A81-AA66-EF0869FDF2D8}"/>
+    <hyperlink ref="B2" location="VENTAS!A1" display="Ventas" xr:uid="{C2E1C318-B8EB-4FEC-B301-74D0F5E81A9E}"/>
+    <hyperlink ref="C2" location="PRESENTISMO!A1" display="Presentismo" xr:uid="{69857FB4-07F2-4A14-A0A3-4BB92665466C}"/>
+    <hyperlink ref="D2" location="FACTURACION!A1" display="Facturacion" xr:uid="{4F891EE3-F934-42D9-84BB-2F68CB8A77C6}"/>
+    <hyperlink ref="A7:A9" r:id="rId1" display="Atajos" xr:uid="{6A0240A0-043B-4301-9B62-7182FDF52F45}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{F6719DC8-ACEB-4743-8C16-2E4FE0450346}"/>
+    <hyperlink ref="C7:C9" r:id="rId3" display="Nuevo" xr:uid="{45372501-0B2C-48F5-95D0-00DC4D8269A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5E07A1-3D53-4109-AF4A-DD8C576D2A6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="J1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="K1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="58" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="73">
+        <v>33346</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="35">
+        <v>12345678</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="73">
+        <v>25626</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="35">
+        <v>9430211</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11">
+        <v>16777216</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F5" s="73">
+        <v>34982</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="35">
+        <v>14623894</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="12">
         <v>33346</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="73">
+        <v>36502</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="35">
+        <v>19273491</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="73">
+        <v>22224</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="35">
+        <v>43921042</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="14">
+        <v>65536</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="73">
+        <v>23887</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="35">
+        <v>19823413</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="15">
+        <v>65536</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="73">
+        <v>29635</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="35">
+        <v>10941234</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="25">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="4">
-        <v>25626</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9430211</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="11">
-        <v>16777216</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="4">
-        <v>34982</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2">
-        <v>14623894</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="12">
-        <v>33346</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="4">
-        <v>36502</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2">
-        <v>19273491</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4">
-        <v>22224</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43921042</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="14">
-        <v>65536</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="4">
-        <v>23887</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="2">
-        <v>19823413</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="15">
-        <v>65536</v>
-      </c>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="4">
-        <v>29635</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10941234</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="29">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="2"/>
+      <c r="K11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="30">
+      <c r="L11" s="26">
         <v>65536</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I9" xr:uid="{25573E69-AD66-4482-8DC6-CFBD63045478}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I9">
+      <sortCondition ref="A2:A9"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1557,23 +2635,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52892A9-9843-418B-B9E0-37B5938FBA83}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="23" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" style="21" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1586,40 +2664,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="G1" s="61" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="G1" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="L1" s="61" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="L1" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="91" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="20" t="s">
@@ -1648,19 +2726,19 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="79">
         <v>1234</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="80">
         <v>2</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="92">
         <v>25000</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="93">
         <f>cant*precio</f>
         <v>50000</v>
       </c>
@@ -1692,19 +2770,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="83">
         <v>3241</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="84">
         <v>5</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="94">
         <v>6500</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="95">
         <f>cant*precio</f>
         <v>32500</v>
       </c>
@@ -1736,19 +2814,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="79">
         <v>2154</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="80">
         <v>2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="92">
         <v>56000</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="93">
         <f>cant*precio</f>
         <v>112000</v>
       </c>
@@ -1780,19 +2858,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="83">
         <v>2143</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="84">
         <v>3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="94">
         <v>32000</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="95">
         <f>cant*precio</f>
         <v>96000</v>
       </c>
@@ -1824,19 +2902,19 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="69">
         <v>5421</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="68">
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="96">
         <v>5000</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="97">
         <f>cant*precio</f>
         <v>10000</v>
       </c>
@@ -1868,79 +2946,79 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="L8" s="63" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="L8" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="68"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1954,21 +3032,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5FDB7-88AC-43F8-B859-2745D932DEBA}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="3.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.7109375" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
@@ -1978,256 +3056,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="43">
+      <c r="A1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="38">
         <v>44197</v>
       </c>
-      <c r="C1" s="36">
+      <c r="C1" s="31">
         <v>44198</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="38">
         <v>44199</v>
       </c>
-      <c r="E1" s="36">
+      <c r="E1" s="31">
         <v>44200</v>
       </c>
-      <c r="F1" s="36">
+      <c r="F1" s="31">
         <v>44201</v>
       </c>
-      <c r="G1" s="36">
+      <c r="G1" s="31">
         <v>44202</v>
       </c>
-      <c r="H1" s="36">
+      <c r="H1" s="31">
         <v>44203</v>
       </c>
-      <c r="I1" s="36">
+      <c r="I1" s="31">
         <v>44204</v>
       </c>
-      <c r="J1" s="36">
+      <c r="J1" s="31">
         <v>44205</v>
       </c>
-      <c r="K1" s="43">
+      <c r="K1" s="38">
         <v>44206</v>
       </c>
-      <c r="L1" s="36">
+      <c r="L1" s="31">
         <v>44207</v>
       </c>
-      <c r="M1" s="36">
+      <c r="M1" s="31">
         <v>44208</v>
       </c>
-      <c r="N1" s="36">
+      <c r="N1" s="31">
         <v>44209</v>
       </c>
-      <c r="O1" s="36">
+      <c r="O1" s="31">
         <v>44210</v>
       </c>
-      <c r="P1" s="36">
+      <c r="P1" s="31">
         <v>44211</v>
       </c>
-      <c r="Q1" s="36">
+      <c r="Q1" s="31">
         <v>44212</v>
       </c>
-      <c r="R1" s="43">
+      <c r="R1" s="38">
         <v>44213</v>
       </c>
-      <c r="S1" s="36">
+      <c r="S1" s="31">
         <v>44214</v>
       </c>
-      <c r="T1" s="36">
+      <c r="T1" s="31">
         <v>44215</v>
       </c>
-      <c r="U1" s="36">
+      <c r="U1" s="31">
         <v>44216</v>
       </c>
-      <c r="V1" s="36">
+      <c r="V1" s="31">
         <v>44217</v>
       </c>
-      <c r="W1" s="36">
+      <c r="W1" s="31">
         <v>44218</v>
       </c>
-      <c r="X1" s="36">
+      <c r="X1" s="31">
         <v>44219</v>
       </c>
-      <c r="Y1" s="43">
+      <c r="Y1" s="38">
         <v>44220</v>
       </c>
-      <c r="Z1" s="36">
+      <c r="Z1" s="31">
         <v>44221</v>
       </c>
-      <c r="AA1" s="36">
+      <c r="AA1" s="31">
         <v>44222</v>
       </c>
-      <c r="AB1" s="36">
+      <c r="AB1" s="31">
         <v>44223</v>
       </c>
-      <c r="AC1" s="36">
+      <c r="AC1" s="31">
         <v>44224</v>
       </c>
-      <c r="AD1" s="36">
+      <c r="AD1" s="31">
         <v>44225</v>
       </c>
-      <c r="AE1" s="36">
+      <c r="AE1" s="31">
         <v>44226</v>
       </c>
-      <c r="AF1" s="43">
+      <c r="AF1" s="38">
         <v>44227</v>
       </c>
-      <c r="AG1" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>85</v>
+      <c r="AG1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="str">
-        <f>CONCATENATE(CLIENTES!$B3," ",CLIENTES!$A3)</f>
-        <v>Cristian Damian Racedo</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="32" t="str">
+        <f>CONCATENATE(CLIENTES!$C3," ",CLIENTES!$B3)</f>
+        <v>Cristián Damián Racedo</v>
+      </c>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="44"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="K2" s="39"/>
       <c r="L2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="R2" s="39"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="41">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="36">
         <f t="shared" ref="AG2:AG8" si="0">COUNTA($B2:$AF2)</f>
         <v>17</v>
       </c>
-      <c r="AH2" s="41">
+      <c r="AH2" s="36">
         <f t="shared" ref="AH2:AH8" si="1">COUNTBLANK($B2:$AF2)</f>
         <v>14</v>
       </c>
-      <c r="AJ2" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="60"/>
+      <c r="AJ2" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK2" s="56"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="str">
-        <f>CONCATENATE(CLIENTES!$B4," ",CLIENTES!$A4)</f>
+      <c r="A3" s="32" t="str">
+        <f>CONCATENATE(CLIENTES!$C4," ",CLIENTES!$B4)</f>
         <v>Tomas Gonzalo Alvarez</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="45"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="44"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
       <c r="O3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="R3" s="39"/>
       <c r="S3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y3" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="41">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AH3" s="41">
+      <c r="AH3" s="36">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AJ3" s="66" t="s">
-        <v>93</v>
+      <c r="AJ3" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="AK3" s="2">
         <f>MIN(AG2:AG8)</f>
@@ -2235,83 +3313,83 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="str">
-        <f>CONCATENATE(CLIENTES!$B5," ",CLIENTES!$A5)</f>
+      <c r="A4" s="32" t="str">
+        <f>CONCATENATE(CLIENTES!$C5," ",CLIENTES!$B5)</f>
         <v>Joaquin Daniel Carballo</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="45"/>
+        <v>81</v>
+      </c>
+      <c r="D4" s="40"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="K4" s="39"/>
       <c r="L4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="R4" s="39"/>
       <c r="S4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y4" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="Y4" s="39"/>
       <c r="Z4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="41">
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AH4" s="41">
+      <c r="AH4" s="36">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AJ4" s="65" t="s">
-        <v>94</v>
+      <c r="AJ4" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="AK4" s="2">
         <f>MAX(AG2:AG8)</f>
@@ -2319,241 +3397,241 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="str">
-        <f>CONCATENATE(CLIENTES!$B6," ",CLIENTES!$A6)</f>
+      <c r="A5" s="32" t="str">
+        <f>CONCATENATE(CLIENTES!$C6," ",CLIENTES!$B6)</f>
         <v>Soledad Aimara Luna</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="45"/>
+        <v>81</v>
+      </c>
+      <c r="D5" s="40"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="K5" s="39"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="Y5" s="39"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="41">
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH5" s="41">
+      <c r="AH5" s="36">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ5" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK5" s="52">
+      <c r="AJ5" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK5" s="48">
         <f>AVERAGE(AG2:AG8)</f>
         <v>14.428571428571429</v>
       </c>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="50"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="45"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="str">
-        <f>CONCATENATE(CLIENTES!$B7," ",CLIENTES!$A7)</f>
+      <c r="A6" s="32" t="str">
+        <f>CONCATENATE(CLIENTES!$C7," ",CLIENTES!$B7)</f>
         <v>Camilo Alberto Sesto</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="45"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="K6" s="39"/>
       <c r="L6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="R6" s="39"/>
       <c r="S6" s="2"/>
       <c r="T6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="Y6" s="39"/>
       <c r="Z6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="41">
+        <v>81</v>
+      </c>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="36">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AH6" s="41">
+      <c r="AH6" s="36">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AJ6" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="53">
+      <c r="AJ6" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" s="49">
         <f>ROUND(AK5,2)</f>
         <v>14.43</v>
       </c>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="50"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="45"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="str">
-        <f>CONCATENATE(CLIENTES!$B8," ",CLIENTES!$A8)</f>
-        <v>Roberto Julio Sanchez</v>
-      </c>
-      <c r="B7" s="44"/>
+      <c r="A7" s="32" t="str">
+        <f>CONCATENATE(CLIENTES!$C8," ",CLIENTES!$B8)</f>
+        <v>Roberto Miguel Sanchez</v>
+      </c>
+      <c r="B7" s="39"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="45"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="K7" s="39"/>
       <c r="L7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="2"/>
       <c r="T7" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="Y7" s="39"/>
       <c r="Z7" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="41">
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH7" s="41">
+      <c r="AH7" s="36">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ7" s="65" t="s">
-        <v>91</v>
+      <c r="AJ7" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="AK7" s="2">
         <f>MODE(AG2:AG8)</f>
@@ -2561,213 +3639,213 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="str">
-        <f>CONCATENATE(CLIENTES!$B9," ",CLIENTES!$A9)</f>
+      <c r="A8" s="32" t="str">
+        <f>CONCATENATE(CLIENTES!$C9," ",CLIENTES!$B9)</f>
         <v>Nino Antonio Bravo</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="42">
+      <c r="B8" s="42"/>
+      <c r="C8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="42"/>
+      <c r="S8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="37">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AH8" s="42">
+      <c r="AH8" s="37">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AJ8" s="65" t="s">
-        <v>92</v>
+      <c r="AJ8" s="61" t="s">
+        <v>90</v>
       </c>
       <c r="AK8" s="2">
         <f>MEDIAN(AG2:AG8)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="41">
+    <row r="9" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="36">
         <f>COUNTA(C$2:C$8)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="41">
+      <c r="D9" s="39"/>
+      <c r="E9" s="36">
         <f t="shared" ref="E9:AE9" si="2">COUNTA(E$2:E$8)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="36">
         <f>COUNTA(F$2:F$8)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="41">
+      <c r="K9" s="39"/>
+      <c r="L9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="41">
+      <c r="R9" s="39"/>
+      <c r="S9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U9" s="41">
+      <c r="U9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="V9" s="41">
+      <c r="V9" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W9" s="41">
+      <c r="W9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="41">
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AA9" s="41">
+      <c r="AA9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB9" s="41">
+      <c r="AB9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AC9" s="41">
+      <c r="AC9" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AD9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AE9" s="41">
+      <c r="AE9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="48">
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="43">
         <f>COUNT(B9:AF9)</f>
         <v>25</v>
       </c>
-      <c r="AH9" s="48">
+      <c r="AH9" s="43">
         <f>COUNTBLANK(B9:AF9)</f>
         <v>6</v>
       </c>
-      <c r="AJ9" s="65" t="s">
-        <v>133</v>
+      <c r="AJ9" s="61" t="s">
+        <v>130</v>
       </c>
       <c r="AK9" s="2">
         <f>TREND(AG2:AG8)</f>
@@ -2775,18 +3853,18 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
-        <v>87</v>
+      <c r="B13" s="44" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2795,15 +3873,18 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423699E4-0C9C-435A-BF1D-98F61FED6754}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,44 +3907,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="67" t="s">
-        <v>118</v>
+      <c r="L1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>115</v>
       </c>
       <c r="P1" s="4">
         <f ca="1">TODAY()</f>
@@ -2873,10 +3954,10 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>PRESENTISMO!A2</f>
-        <v>Cristian Damian Racedo</v>
+        <v>Cristián Damián Racedo</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>CLIENTES!D3</f>
+        <f>CLIENTES!E3</f>
         <v>20-35353535-4</v>
       </c>
       <c r="C2" s="2" t="str">
@@ -2897,11 +3978,11 @@
       </c>
       <c r="H2" s="2" t="str">
         <f t="shared" ref="H2:H8" si="1">LEFT(A2,J2-1)</f>
-        <v>Cristian</v>
+        <v>Cristián</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>MID(A2,J2+1,K2-(J2+1))</f>
-        <v>Damian</v>
+        <v>Damián</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J8" si="2">FIND(" ",A2)</f>
@@ -2915,25 +3996,25 @@
         <f t="shared" ref="L2:L8" si="4">LEN(A2)</f>
         <v>22</v>
       </c>
-      <c r="M2" s="55">
-        <f ca="1">$P$5-YEAR(CLIENTES!E3)</f>
+      <c r="M2" s="51">
+        <f ca="1">$P$5-YEAR(CLIENTES!F3)</f>
         <v>30</v>
       </c>
-      <c r="O2" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="54">
+      <c r="O2" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="50">
         <f ca="1">NOW()</f>
-        <v>44232.791452430552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>44232.920205555558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>PRESENTISMO!A3</f>
         <v>Tomas Gonzalo Alvarez</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>CLIENTES!D4</f>
+        <f>CLIENTES!E4</f>
         <v>24-91234121-7</v>
       </c>
       <c r="C3" s="2" t="str">
@@ -2972,12 +4053,12 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="M3" s="55">
-        <f ca="1">$P$5-YEAR(CLIENTES!E4)</f>
+      <c r="M3" s="51">
+        <f ca="1">$P$5-YEAR(CLIENTES!F4)</f>
         <v>51</v>
       </c>
-      <c r="O3" s="67" t="s">
-        <v>120</v>
+      <c r="O3" s="63" t="s">
+        <v>117</v>
       </c>
       <c r="P3" s="2">
         <f ca="1">DAY(P2)</f>
@@ -2990,7 +4071,7 @@
         <v>Joaquin Daniel Carballo</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>CLIENTES!D5</f>
+        <f>CLIENTES!E5</f>
         <v>29-43123891-4</v>
       </c>
       <c r="C4" s="2" t="str">
@@ -3029,12 +4110,12 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="M4" s="55">
-        <f ca="1">$P$5-YEAR(CLIENTES!E5)</f>
+      <c r="M4" s="51">
+        <f ca="1">$P$5-YEAR(CLIENTES!F5)</f>
         <v>26</v>
       </c>
-      <c r="O4" s="67" t="s">
-        <v>121</v>
+      <c r="O4" s="63" t="s">
+        <v>118</v>
       </c>
       <c r="P4" s="2">
         <f ca="1">MONTH(P2)</f>
@@ -3047,7 +4128,7 @@
         <v>Soledad Aimara Luna</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>CLIENTES!D6</f>
+        <f>CLIENTES!E6</f>
         <v>24-56481231-4</v>
       </c>
       <c r="C5" s="2" t="str">
@@ -3086,25 +4167,25 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="M5" s="55">
-        <f ca="1">$P$5-YEAR(CLIENTES!E6)</f>
+      <c r="M5" s="51">
+        <f ca="1">$P$5-YEAR(CLIENTES!F6)</f>
         <v>22</v>
       </c>
-      <c r="O5" s="67" t="s">
-        <v>122</v>
+      <c r="O5" s="63" t="s">
+        <v>119</v>
       </c>
       <c r="P5" s="2">
         <f ca="1">YEAR(P2)</f>
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>PRESENTISMO!A6</f>
         <v>Camilo Alberto Sesto</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>CLIENTES!D7</f>
+        <f>CLIENTES!E7</f>
         <v>30-04819292-2</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -3143,25 +4224,25 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="M6" s="55">
-        <f ca="1">$P$5-YEAR(CLIENTES!E7)</f>
+      <c r="M6" s="51">
+        <f ca="1">$P$5-YEAR(CLIENTES!F7)</f>
         <v>61</v>
       </c>
-      <c r="O6" s="67" t="s">
-        <v>123</v>
+      <c r="O6" s="63" t="s">
+        <v>120</v>
       </c>
       <c r="P6" s="2">
         <f ca="1">HOUR(P2)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>PRESENTISMO!A7</f>
-        <v>Roberto Julio Sanchez</v>
+        <v>Roberto Miguel Sanchez</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>CLIENTES!D8</f>
+        <f>CLIENTES!E8</f>
         <v>20-06812320-6</v>
       </c>
       <c r="C7" s="2" t="str">
@@ -3186,7 +4267,7 @@
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>Julio</v>
+        <v>Miguel</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
@@ -3194,22 +4275,22 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="M7" s="55">
-        <f ca="1">$P$5-YEAR(CLIENTES!E8)</f>
+        <v>22</v>
+      </c>
+      <c r="M7" s="51">
+        <f ca="1">$P$5-YEAR(CLIENTES!F8)</f>
         <v>56</v>
       </c>
-      <c r="O7" s="67" t="s">
-        <v>124</v>
+      <c r="O7" s="63" t="s">
+        <v>121</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">MINUTE(P2)</f>
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3218,7 +4299,7 @@
         <v>Nino Antonio Bravo</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>CLIENTES!D9</f>
+        <f>CLIENTES!E9</f>
         <v>20-16237421-4</v>
       </c>
       <c r="C8" s="2" t="str">
@@ -3257,104 +4338,112 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M8" s="55">
-        <f ca="1">$P$5-YEAR(CLIENTES!E9)</f>
+      <c r="M8" s="51">
+        <f ca="1">$P$5-YEAR(CLIENTES!F9)</f>
         <v>40</v>
       </c>
-      <c r="O8" s="67" t="s">
-        <v>125</v>
+      <c r="O8" s="63" t="s">
+        <v>122</v>
       </c>
       <c r="P8" s="2">
         <f ca="1">SECOND(P2)</f>
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E8" xr:uid="{722EB72B-60F8-483D-BB78-999B40EDD02D}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="20*"/>
+        <customFilter val="*4"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A11:M11"/>
@@ -3364,4 +4453,550 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F963E-99AE-483A-AD80-B3363CF9FADA}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="str">
+        <f>PRESENTISMO!$A2</f>
+        <v>Cristián Damián Racedo</v>
+      </c>
+      <c r="B2" s="80">
+        <v>8</v>
+      </c>
+      <c r="C2" s="80">
+        <v>9</v>
+      </c>
+      <c r="D2" s="80">
+        <v>9</v>
+      </c>
+      <c r="E2" s="81">
+        <f>AVERAGE($B2:$D2)</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F2" s="82" t="str">
+        <f>IF(AND(B2&gt;=7,C2&gt;=7,D2&gt;=7),"aprueba","rinde final")</f>
+        <v>aprueba</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="str">
+        <f>PRESENTISMO!$A3</f>
+        <v>Tomas Gonzalo Alvarez</v>
+      </c>
+      <c r="B3" s="84">
+        <v>4</v>
+      </c>
+      <c r="C3" s="84">
+        <v>7</v>
+      </c>
+      <c r="D3" s="84">
+        <v>8</v>
+      </c>
+      <c r="E3" s="85">
+        <f t="shared" ref="E3:E8" si="0">AVERAGE($B3:$D3)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F3" s="86" t="str">
+        <f t="shared" ref="F3:F8" si="1">IF(AND(B3&gt;=7,C3&gt;=7,D3&gt;=7),"aprueba","rinde final")</f>
+        <v>rinde final</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="str">
+        <f>PRESENTISMO!$A4</f>
+        <v>Joaquin Daniel Carballo</v>
+      </c>
+      <c r="B4" s="80">
+        <v>1</v>
+      </c>
+      <c r="C4" s="80">
+        <v>3</v>
+      </c>
+      <c r="D4" s="80">
+        <v>5</v>
+      </c>
+      <c r="E4" s="81">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>rinde final</v>
+      </c>
+      <c r="H4" s="98"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="str">
+        <f>PRESENTISMO!$A5</f>
+        <v>Soledad Aimara Luna</v>
+      </c>
+      <c r="B5" s="84">
+        <v>8</v>
+      </c>
+      <c r="C5" s="84">
+        <v>9</v>
+      </c>
+      <c r="D5" s="84">
+        <v>8</v>
+      </c>
+      <c r="E5" s="85">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F5" s="86" t="str">
+        <f t="shared" si="1"/>
+        <v>aprueba</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="str">
+        <f>PRESENTISMO!$A6</f>
+        <v>Camilo Alberto Sesto</v>
+      </c>
+      <c r="B6" s="80">
+        <v>9</v>
+      </c>
+      <c r="C6" s="80">
+        <v>8</v>
+      </c>
+      <c r="D6" s="80">
+        <v>6</v>
+      </c>
+      <c r="E6" s="81">
+        <f t="shared" si="0"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F6" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>rinde final</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="str">
+        <f>PRESENTISMO!$A7</f>
+        <v>Roberto Miguel Sanchez</v>
+      </c>
+      <c r="B7" s="84">
+        <v>6</v>
+      </c>
+      <c r="C7" s="84">
+        <v>5</v>
+      </c>
+      <c r="D7" s="84">
+        <v>5</v>
+      </c>
+      <c r="E7" s="85">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F7" s="86" t="str">
+        <f t="shared" si="1"/>
+        <v>rinde final</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="str">
+        <f>PRESENTISMO!$A8</f>
+        <v>Nino Antonio Bravo</v>
+      </c>
+      <c r="B8" s="68">
+        <v>4</v>
+      </c>
+      <c r="C8" s="68">
+        <v>2</v>
+      </c>
+      <c r="D8" s="68">
+        <v>3</v>
+      </c>
+      <c r="E8" s="87">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>rinde final</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="102" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+    </row>
+    <row r="25" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C563C9CD-3BF8-4EE8-B8F0-D1DB46FA4C63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465C055-1D6B-4459-92F6-D94EF4146D80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
     <sheet name="INDICE" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,19 @@
     <sheet name="PRESENTISMO" sheetId="3" r:id="rId4"/>
     <sheet name="FACTURACION" sheetId="4" r:id="rId5"/>
     <sheet name="NOTAS" sheetId="8" r:id="rId6"/>
+    <sheet name="COMISION" sheetId="9" r:id="rId7"/>
+    <sheet name="GRAFICOS" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CLIENTES!$A$2:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FACTURACION!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NOTAS!$A$1:$F$8</definedName>
     <definedName name="cant">VENTAS!$C:$C</definedName>
+    <definedName name="com_nada">COMISION!$H$5</definedName>
+    <definedName name="com_parcial">COMISION!$G$5</definedName>
+    <definedName name="com_total">COMISION!$F$5</definedName>
+    <definedName name="obj_monto">COMISION!$H$2</definedName>
+    <definedName name="obj_ventas">COMISION!$G$2</definedName>
     <definedName name="precio">VENTAS!$D:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="222">
   <si>
     <t>Apellido</t>
   </si>
@@ -696,6 +703,36 @@
   </si>
   <si>
     <t>|| OR O(...)</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>recaudacion</t>
+  </si>
+  <si>
+    <t>comision</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>parcial</t>
+  </si>
+  <si>
+    <t>ninguno</t>
+  </si>
+  <si>
+    <t>comisiones</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -769,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,8 +855,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -991,14 +1045,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1101,33 +1205,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1138,13 +1215,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,21 +1226,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1191,6 +1255,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1209,17 +1318,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,6 +1376,4789 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3500000000000021E-2"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMISION!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2846-46E5-9BBE-76BECD9EE49A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2846-46E5-9BBE-76BECD9EE49A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2846-46E5-9BBE-76BECD9EE49A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2846-46E5-9BBE-76BECD9EE49A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2846-46E5-9BBE-76BECD9EE49A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2846-46E5-9BBE-76BECD9EE49A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2846-46E5-9BBE-76BECD9EE49A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11572506561679791"/>
+                  <c:y val="1.7553222513852437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -136287"/>
+                        <a:gd name="adj2" fmla="val 89112"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2846-46E5-9BBE-76BECD9EE49A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1124671916010396E-2"/>
+                  <c:y val="-3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -120130"/>
+                        <a:gd name="adj2" fmla="val 24795"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2846-46E5-9BBE-76BECD9EE49A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.29722222222222211"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -193583"/>
+                        <a:gd name="adj2" fmla="val -74511"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2846-46E5-9BBE-76BECD9EE49A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.824803149606299E-3"/>
+                  <c:y val="0.27777777777777779"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 118518"/>
+                        <a:gd name="adj2" fmla="val -176569"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2846-46E5-9BBE-76BECD9EE49A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11805468066491688"/>
+                  <c:y val="0.29166666666666669"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 158266"/>
+                        <a:gd name="adj2" fmla="val -90048"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2846-46E5-9BBE-76BECD9EE49A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15244203849518811"/>
+                  <c:y val="8.7962962962962923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 152987"/>
+                        <a:gd name="adj2" fmla="val 31194"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2846-46E5-9BBE-76BECD9EE49A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.05"/>
+                  <c:y val="-2.6882108486439196E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 84815"/>
+                        <a:gd name="adj2" fmla="val 112669"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-2846-46E5-9BBE-76BECD9EE49A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMISION!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMISION!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2846-46E5-9BBE-76BECD9EE49A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMISION!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recaudacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMISION!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMISION!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8280-40B3-BA35-449D867910E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMISION!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>comision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMISION!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMISION!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8280-40B3-BA35-449D867910E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="465120904"/>
+        <c:axId val="465113032"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="465120904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465113032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465113032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465120904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Estadisticas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> de Ventas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMISION!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recaudacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMISION!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMISION!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-237F-4742-80CD-2FC83608F559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMISION!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>comision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMISION!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMISION!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-237F-4742-80CD-2FC83608F559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="393307392"/>
+        <c:axId val="393312312"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMISION!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMISION!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMISION!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-237F-4742-80CD-2FC83608F559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="393318872"/>
+        <c:axId val="393325760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="393307392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393312312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="393312312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393307392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="393325760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393318872"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="393318872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="393325760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Evaluacion de rendimiento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NOTAS!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tri 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NOTAS!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NOTAS!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE13-4311-B35F-2E949349D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NOTAS!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tri 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NOTAS!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NOTAS!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE13-4311-B35F-2E949349D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NOTAS!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tri 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NOTAS!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cristián Damián Racedo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tomas Gonzalo Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joaquin Daniel Carballo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soledad Aimara Luna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camilo Alberto Sesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberto Miguel Sanchez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nino Antonio Bravo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NOTAS!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE13-4311-B35F-2E949349D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="542788704"/>
+        <c:axId val="542786736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542788704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542786736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542786736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542788704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1798,6 +6716,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>753014</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44DC454-F38B-4AB9-8FD8-C0A3858B2EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>753014</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108686</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBB060D-0D6B-4BBD-9A42-403C9BA5D6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89045</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0320B1-80E9-45E5-91A2-13E90AADD411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87922</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87922</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0299788-7EBF-4A4A-BA88-99029908EA9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2107,78 +7182,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="90" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="90" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="CLIENTES!A1" display="Clientes" xr:uid="{1768E87E-2F19-4A81-AA66-EF0869FDF2D8}"/>
@@ -2190,7 +7265,8 @@
     <hyperlink ref="C7:C9" r:id="rId3" display="Nuevo" xr:uid="{45372501-0B2C-48F5-95D0-00DC4D8269A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2226,54 +7302,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="K1" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="92"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="56"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="59" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="27" t="s">
@@ -2296,25 +7372,25 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="61">
         <v>33346</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="35">
@@ -2341,25 +7417,25 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="61">
         <v>25626</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="35">
@@ -2386,25 +7462,25 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="61">
         <v>34982</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="60" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="35">
@@ -2431,25 +7507,25 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="61">
         <v>36502</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="60" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="35">
@@ -2476,25 +7552,25 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="61">
         <v>22224</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="60" t="s">
         <v>127</v>
       </c>
       <c r="I7" s="35">
@@ -2512,25 +7588,25 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="61">
         <v>23887</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="60" t="s">
         <v>128</v>
       </c>
       <c r="I8" s="35">
@@ -2548,25 +7624,25 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="61">
         <v>29635</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="60" t="s">
         <v>129</v>
       </c>
       <c r="I9" s="35">
@@ -2584,13 +7660,13 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="3"/>
       <c r="K10" s="22" t="s">
         <v>68</v>
@@ -2643,7 +7719,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,40 +7740,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="G1" s="57" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="G1" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="L1" s="57" t="s">
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="L1" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="75" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="20" t="s">
@@ -2726,19 +7802,19 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="79">
+      <c r="A3" s="66">
         <v>1234</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="67">
         <v>2</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="76">
         <v>25000</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="77">
         <f>cant*precio</f>
         <v>50000</v>
       </c>
@@ -2770,19 +7846,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="A4" s="69">
         <v>3241</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="70">
         <v>5</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="78">
         <v>6500</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="79">
         <f>cant*precio</f>
         <v>32500</v>
       </c>
@@ -2814,19 +7890,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="79">
+      <c r="A5" s="66">
         <v>2154</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="67">
         <v>2</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="76">
         <v>56000</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="77">
         <f>cant*precio</f>
         <v>112000</v>
       </c>
@@ -2858,19 +7934,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+      <c r="A6" s="69">
         <v>2143</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="70">
         <v>3</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="78">
         <v>32000</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="79">
         <f>cant*precio</f>
         <v>96000</v>
       </c>
@@ -2902,19 +7978,19 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="57">
         <v>5421</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="56">
         <v>2</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="80">
         <v>5000</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="81">
         <f>cant*precio</f>
         <v>10000</v>
       </c>
@@ -2946,79 +8022,79 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="L8" s="59" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="L8" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="64"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
+      <c r="D11" s="55"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3029,6 +8105,7 @@
     <mergeCell ref="L8:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3237,10 +8314,10 @@
         <f t="shared" ref="AH2:AH8" si="1">COUNTBLANK($B2:$AF2)</f>
         <v>14</v>
       </c>
-      <c r="AJ2" s="54" t="s">
+      <c r="AJ2" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="56"/>
+      <c r="AK2" s="95"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="str">
@@ -3304,7 +8381,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AJ3" s="62" t="s">
+      <c r="AJ3" s="53" t="s">
         <v>91</v>
       </c>
       <c r="AK3" s="2">
@@ -3388,7 +8465,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AJ4" s="61" t="s">
+      <c r="AJ4" s="52" t="s">
         <v>92</v>
       </c>
       <c r="AK4" s="2">
@@ -3464,7 +8541,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ5" s="61" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>87</v>
       </c>
       <c r="AK5" s="48">
@@ -3552,7 +8629,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AJ6" s="61" t="s">
+      <c r="AJ6" s="52" t="s">
         <v>88</v>
       </c>
       <c r="AK6" s="49">
@@ -3630,7 +8707,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ7" s="61" t="s">
+      <c r="AJ7" s="52" t="s">
         <v>89</v>
       </c>
       <c r="AK7" s="2">
@@ -3718,7 +8795,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AJ8" s="61" t="s">
+      <c r="AJ8" s="52" t="s">
         <v>90</v>
       </c>
       <c r="AK8" s="2">
@@ -3844,7 +8921,7 @@
         <f>COUNTBLANK(B9:AF9)</f>
         <v>6</v>
       </c>
-      <c r="AJ9" s="61" t="s">
+      <c r="AJ9" s="52" t="s">
         <v>130</v>
       </c>
       <c r="AK9" s="2">
@@ -3943,12 +9020,12 @@
       <c r="M1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="54" t="s">
         <v>115</v>
       </c>
       <c r="P1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44232</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4000,12 +9077,12 @@
         <f ca="1">$P$5-YEAR(CLIENTES!F3)</f>
         <v>30</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="54" t="s">
         <v>116</v>
       </c>
       <c r="P2" s="50">
         <f ca="1">NOW()</f>
-        <v>44232.920205555558</v>
+        <v>44239.855529745371</v>
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4057,12 +9134,12 @@
         <f ca="1">$P$5-YEAR(CLIENTES!F4)</f>
         <v>51</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="54" t="s">
         <v>117</v>
       </c>
       <c r="P3" s="2">
         <f ca="1">DAY(P2)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4114,7 +9191,7 @@
         <f ca="1">$P$5-YEAR(CLIENTES!F5)</f>
         <v>26</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="54" t="s">
         <v>118</v>
       </c>
       <c r="P4" s="2">
@@ -4171,7 +9248,7 @@
         <f ca="1">$P$5-YEAR(CLIENTES!F6)</f>
         <v>22</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="54" t="s">
         <v>119</v>
       </c>
       <c r="P5" s="2">
@@ -4228,12 +9305,12 @@
         <f ca="1">$P$5-YEAR(CLIENTES!F7)</f>
         <v>61</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="54" t="s">
         <v>120</v>
       </c>
       <c r="P6" s="2">
         <f ca="1">HOUR(P2)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4285,12 +9362,12 @@
         <f ca="1">$P$5-YEAR(CLIENTES!F8)</f>
         <v>56</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="54" t="s">
         <v>121</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">MINUTE(P2)</f>
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4342,98 +9419,98 @@
         <f ca="1">$P$5-YEAR(CLIENTES!F9)</f>
         <v>40</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="54" t="s">
         <v>122</v>
       </c>
       <c r="P8" s="2">
         <f ca="1">SECOND(P2)</f>
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E8" xr:uid="{722EB72B-60F8-483D-BB78-999B40EDD02D}">
@@ -4452,284 +9529,317 @@
     <mergeCell ref="A14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F963E-99AE-483A-AD80-B3363CF9FADA}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="I1" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="str">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="str">
         <f>PRESENTISMO!$A2</f>
         <v>Cristián Damián Racedo</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="67">
         <v>8</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="67">
         <v>9</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="67">
         <v>9</v>
       </c>
-      <c r="E2" s="81">
-        <f>AVERAGE($B2:$D2)</f>
+      <c r="E2" s="68">
+        <f>IF(AND(B2&gt;=0,B2&lt;=10,C2&gt;=0,C2&lt;=10,D2&gt;=0,D2&lt;=10),AVERAGE(B2:D2),"corregir notas")</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="F2" s="82" t="str">
-        <f>IF(AND(B2&gt;=7,C2&gt;=7,D2&gt;=7),"aprueba","rinde final")</f>
-        <v>aprueba</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="121" t="str">
+        <f>IF(AND(B2&gt;=7,C2&gt;=7,D2&gt;=7),"si","no")</f>
+        <v>si</v>
+      </c>
+      <c r="G2" s="121" t="str">
+        <f>IF(E2&gt;10,"no valido",IF(E2&gt;=7,"aprobado",IF(E2&gt;=4,"regular",IF(E2&gt;=0,"aplazo","no valido"))))</f>
+        <v>aprobado</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="J2" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="K2" s="87" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="str">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="str">
         <f>PRESENTISMO!$A3</f>
         <v>Tomas Gonzalo Alvarez</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="70">
         <v>4</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="70">
         <v>7</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="70">
         <v>8</v>
       </c>
-      <c r="E3" s="85">
-        <f t="shared" ref="E3:E8" si="0">AVERAGE($B3:$D3)</f>
+      <c r="E3" s="71">
+        <f>IF(AND(B3&gt;=0,B3&lt;=10,C3&gt;=0,C3&lt;=10,D3&gt;=0,D3&lt;=10),AVERAGE(B3:D3),"corregir notas")</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="F3" s="86" t="str">
-        <f t="shared" ref="F3:F8" si="1">IF(AND(B3&gt;=7,C3&gt;=7,D3&gt;=7),"aprueba","rinde final")</f>
-        <v>rinde final</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="122" t="str">
+        <f t="shared" ref="F3:F8" si="0">IF(AND(B3&gt;=7,C3&gt;=7,D3&gt;=7),"si","no")</f>
+        <v>no</v>
+      </c>
+      <c r="G3" s="122" t="str">
+        <f t="shared" ref="G3:G8" si="1">IF(E3&gt;10,"Valor mayor a 10",IF(E3&gt;=7,"aprobado",IF(E3&gt;=4,"regular",IF(E3&gt;=0,"aplazo","Valor menor que 0"))))</f>
+        <v>regular</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="J3" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="K3" s="87" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="str">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="str">
         <f>PRESENTISMO!$A4</f>
         <v>Joaquin Daniel Carballo</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="67">
         <v>1</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="67">
         <v>3</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="67">
         <v>5</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="68">
+        <f t="shared" ref="E4:E8" si="2">IF(AND(B4&gt;=0,B4&lt;=10,C4&gt;=0,C4&lt;=10,D4&gt;=0,D4&lt;=10),AVERAGE(B4:D4),"corregir notas")</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="121" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4" s="82" t="str">
+        <v>no</v>
+      </c>
+      <c r="G4" s="121" t="str">
         <f t="shared" si="1"/>
-        <v>rinde final</v>
-      </c>
-      <c r="H4" s="98"/>
-      <c r="I4"/>
+        <v>aplazo</v>
+      </c>
+      <c r="I4" s="82"/>
+      <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="str">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="str">
         <f>PRESENTISMO!$A5</f>
         <v>Soledad Aimara Luna</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="70">
         <v>8</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="70">
         <v>9</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="70">
         <v>8</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="71">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F5" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="F5" s="86" t="str">
+        <v>si</v>
+      </c>
+      <c r="G5" s="122" t="str">
         <f t="shared" si="1"/>
-        <v>aprueba</v>
-      </c>
-      <c r="H5" s="110" t="s">
+        <v>aprobado</v>
+      </c>
+      <c r="I5" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="str">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="str">
         <f>PRESENTISMO!$A6</f>
         <v>Camilo Alberto Sesto</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="67">
         <v>9</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="67">
         <v>8</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="67">
         <v>6</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="68">
+        <f t="shared" si="2"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F6" s="121" t="str">
         <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="F6" s="82" t="str">
+        <v>no</v>
+      </c>
+      <c r="G6" s="121" t="str">
         <f t="shared" si="1"/>
-        <v>rinde final</v>
-      </c>
-      <c r="H6" s="9" t="s">
+        <v>aprobado</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="J6" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="K6" s="87" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="str">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="str">
         <f>PRESENTISMO!$A7</f>
         <v>Roberto Miguel Sanchez</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="70">
         <v>6</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="70">
         <v>5</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="70">
         <v>5</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="71">
+        <f t="shared" si="2"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F7" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="F7" s="86" t="str">
+        <v>no</v>
+      </c>
+      <c r="G7" s="122" t="str">
         <f t="shared" si="1"/>
-        <v>rinde final</v>
-      </c>
-      <c r="H7" s="9" t="s">
+        <v>regular</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="J7" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="K7" s="87" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="str">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="str">
         <f>PRESENTISMO!$A8</f>
         <v>Nino Antonio Bravo</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="56">
         <v>4</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="56">
         <v>2</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="56">
         <v>3</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="68">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="121" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="67" t="str">
+        <v>no</v>
+      </c>
+      <c r="G8" s="121" t="str">
         <f t="shared" si="1"/>
-        <v>rinde final</v>
-      </c>
-      <c r="H8" s="98"/>
-      <c r="I8"/>
+        <v>aplazo</v>
+      </c>
+      <c r="I8" s="82"/>
+      <c r="J8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="117"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -4739,31 +9849,33 @@
       <c r="C11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="118"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="119"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>158</v>
       </c>
@@ -4773,218 +9885,226 @@
       <c r="C13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="118"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="118"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>160</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="102" t="e">
+      <c r="D15" s="101" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="118"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>161</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="118"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="118"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="117"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="118"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="118"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="84" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="118"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="84" t="s">
         <v>179</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="104"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="118"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="84" t="s">
         <v>179</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="118"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="84" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="104"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="118"/>
     </row>
-    <row r="25" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D16:G16"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="D25:G25"/>
@@ -4995,8 +10115,241 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D34E905-AC8B-42E5-B03E-7AF49D6EBB64}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="str">
+        <f>NOTAS!A2</f>
+        <v>Cristián Damián Racedo</v>
+      </c>
+      <c r="B2" s="110">
+        <v>30</v>
+      </c>
+      <c r="C2" s="114">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="114">
+        <f>IF(AND(B2&gt;=obj_ventas,C2&gt;=obj_monto),C2*com_total,IF(OR(B2&gt;=obj_ventas,C2&gt;=obj_monto),C2*com_parcial,C2*com_nada))</f>
+        <v>10000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="str">
+        <f>NOTAS!A3</f>
+        <v>Tomas Gonzalo Alvarez</v>
+      </c>
+      <c r="B3" s="112">
+        <v>20</v>
+      </c>
+      <c r="C3" s="115">
+        <v>120000</v>
+      </c>
+      <c r="D3" s="115">
+        <f>IF(AND(B3&gt;=obj_ventas,C3&gt;=obj_monto),C3*com_total,IF(OR(B3&gt;=obj_ventas,C3&gt;=obj_monto),C3*com_parcial,C3*com_nada))</f>
+        <v>12000</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="str">
+        <f>NOTAS!A4</f>
+        <v>Joaquin Daniel Carballo</v>
+      </c>
+      <c r="B4" s="107">
+        <v>60</v>
+      </c>
+      <c r="C4" s="116">
+        <v>30000</v>
+      </c>
+      <c r="D4" s="116">
+        <f>IF(AND(B4&gt;=obj_ventas,C4&gt;=obj_monto),C4*com_total,IF(OR(B4&gt;=obj_ventas,C4&gt;=obj_monto),C4*com_parcial,C4*com_nada))</f>
+        <v>3000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="111" t="str">
+        <f>NOTAS!A5</f>
+        <v>Soledad Aimara Luna</v>
+      </c>
+      <c r="B5" s="112">
+        <v>25</v>
+      </c>
+      <c r="C5" s="115">
+        <v>60000</v>
+      </c>
+      <c r="D5" s="115">
+        <f>IF(AND(B5&gt;=obj_ventas,C5&gt;=obj_monto),C5*com_total,IF(OR(B5&gt;=obj_ventas,C5&gt;=obj_monto),C5*com_parcial,C5*com_nada))</f>
+        <v>12000</v>
+      </c>
+      <c r="F5" s="108">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="108">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="108">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="113" t="str">
+        <f>NOTAS!A6</f>
+        <v>Camilo Alberto Sesto</v>
+      </c>
+      <c r="B6" s="107">
+        <v>10</v>
+      </c>
+      <c r="C6" s="116">
+        <v>25000</v>
+      </c>
+      <c r="D6" s="116">
+        <f>IF(AND(B6&gt;=obj_ventas,C6&gt;=obj_monto),C6*com_total,IF(OR(B6&gt;=obj_ventas,C6&gt;=obj_monto),C6*com_parcial,C6*com_nada))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="str">
+        <f>NOTAS!A7</f>
+        <v>Roberto Miguel Sanchez</v>
+      </c>
+      <c r="B7" s="112">
+        <v>5</v>
+      </c>
+      <c r="C7" s="115">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="115">
+        <f>IF(AND(B7&gt;=obj_ventas,C7&gt;=obj_monto),C7*com_total,IF(OR(B7&gt;=obj_ventas,C7&gt;=obj_monto),C7*com_parcial,C7*com_nada))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="113" t="str">
+        <f>NOTAS!A8</f>
+        <v>Nino Antonio Bravo</v>
+      </c>
+      <c r="B8" s="107">
+        <v>15</v>
+      </c>
+      <c r="C8" s="116">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="116">
+        <f>IF(AND(B8&gt;=obj_ventas,C8&gt;=obj_monto),C8*com_total,IF(OR(B8&gt;=obj_ventas,C8&gt;=obj_monto),C8*com_parcial,C8*com_nada))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="125">
+        <f>SUM(B$2:B$8)</f>
+        <v>165</v>
+      </c>
+      <c r="C9" s="126">
+        <f t="shared" ref="C9:D9" si="0">SUM(C$2:C$8)</f>
+        <v>300000</v>
+      </c>
+      <c r="D9" s="126">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4141B09-22B5-44D5-A844-939751439816}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,31 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465C055-1D6B-4459-92F6-D94EF4146D80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73050C4-29C1-4E7C-85B9-3BAD3011162E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="2" activeTab="8" xr2:uid="{5F90D6C7-7DF9-4BD1-9193-1E7BE939159B}"/>
   </bookViews>
   <sheets>
     <sheet name="INDICE" sheetId="5" r:id="rId1"/>
     <sheet name="CLIENTES" sheetId="1" r:id="rId2"/>
-    <sheet name="VENTAS" sheetId="2" r:id="rId3"/>
+    <sheet name="ARTICULOS" sheetId="2" r:id="rId3"/>
     <sheet name="PRESENTISMO" sheetId="3" r:id="rId4"/>
     <sheet name="FACTURACION" sheetId="4" r:id="rId5"/>
     <sheet name="NOTAS" sheetId="8" r:id="rId6"/>
     <sheet name="COMISION" sheetId="9" r:id="rId7"/>
     <sheet name="GRAFICOS" sheetId="10" r:id="rId8"/>
+    <sheet name="FORMATO" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CLIENTES!$A$2:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FACTURACION!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NOTAS!$A$1:$F$8</definedName>
-    <definedName name="cant">VENTAS!$C:$C</definedName>
+    <definedName name="cant">ARTICULOS!$C:$C</definedName>
     <definedName name="com_nada">COMISION!$H$5</definedName>
     <definedName name="com_parcial">COMISION!$G$5</definedName>
     <definedName name="com_total">COMISION!$F$5</definedName>
     <definedName name="obj_monto">COMISION!$H$2</definedName>
     <definedName name="obj_ventas">COMISION!$G$2</definedName>
-    <definedName name="precio">VENTAS!$D:$D</definedName>
+    <definedName name="precio">ARTICULOS!$D:$D</definedName>
+    <definedName name="venta_art">FORMATO!$G:$G</definedName>
+    <definedName name="venta_cant">FORMATO!$H:$H</definedName>
+    <definedName name="venta_emp">FORMATO!$F:$F</definedName>
+    <definedName name="venta_precio">FORMATO!$I:$I</definedName>
+    <definedName name="venta_total">FORMATO!$J:$J</definedName>
+    <definedName name="ventas_emp">FORMATO!$F:$F</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="235">
   <si>
     <t>Apellido</t>
   </si>
@@ -257,9 +264,6 @@
   </si>
   <si>
     <t>DATOS PLANILLA CALCULO</t>
-  </si>
-  <si>
-    <t>VENTAS</t>
   </si>
   <si>
     <t>operación</t>
@@ -726,6 +730,9 @@
     <t>ninguno</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>comisiones</t>
   </si>
   <si>
@@ -733,6 +740,45 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>cod.</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>articulo</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Art.</t>
+  </si>
+  <si>
+    <t>Vend.</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t>monto</t>
   </si>
 </sst>
 </file>
@@ -806,7 +852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,14 +908,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor theme="8" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -1046,40 +1104,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
+      <top style="medium">
         <color theme="0"/>
       </top>
       <bottom/>
@@ -1088,8 +1115,43 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1102,7 +1164,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1184,7 +1246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1285,9 +1346,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,16 +1376,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1344,14 +1396,40 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4"/>
-    <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
@@ -1360,7 +1438,210 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2323,7 +2604,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
@@ -2527,16 +2808,16 @@
                   <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10000</c:v>
@@ -2617,16 +2898,16 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>200</c:v>
@@ -2953,16 +3234,16 @@
                   <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10000</c:v>
@@ -3042,16 +3323,16 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>200</c:v>
@@ -3157,7 +3438,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
@@ -6873,6 +7154,27 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A6402C2-CBE7-4480-84E9-20D4CF052D52}" name="Tabla4" displayName="Tabla4" ref="A10:D15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A10:D15" xr:uid="{F8B3A01B-F183-426C-95B3-8A0D1A19880F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0F6EDF26-21E2-491C-A63B-D90D5B6C242A}" name="cod" dataDxfId="13">
+      <calculatedColumnFormula>ARTICULOS!A3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{9E6D23B5-AD6C-4698-B7CE-45C0515239CA}" name="articulo" dataDxfId="9">
+      <calculatedColumnFormula>LOWER(ARTICULOS!B3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D9913B91-4FAE-4614-A789-BCE107643425}" name="stock" dataDxfId="12">
+      <calculatedColumnFormula>ARTICULOS!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D6C4AD7F-9E8D-420D-81D2-1A9694C43D74}" name="precio" dataDxfId="11" dataCellStyle="Moneda">
+      <calculatedColumnFormula>ARTICULOS!D3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7182,66 +7484,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="A1" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="C2" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="D2" s="89" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="90" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="A6" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>144</v>
+      <c r="C7" s="89" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7278,7 +7580,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7302,54 +7604,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="K1" s="91" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="K1" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="92"/>
+      <c r="L1" s="91"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="93" t="s">
+      <c r="N1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="58" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="27" t="s">
@@ -7372,25 +7674,25 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="61">
+      <c r="E3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="60">
         <v>33346</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="35">
@@ -7400,7 +7702,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="19" t="s">
@@ -7417,25 +7719,25 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="61">
+      <c r="E4" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="60">
         <v>25626</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="35">
@@ -7462,25 +7764,25 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="61">
+      <c r="E5" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="60">
         <v>34982</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="35">
@@ -7507,25 +7809,25 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="60" t="s">
+      <c r="C6" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="61">
+      <c r="E6" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="60">
         <v>36502</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="59" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="35">
@@ -7552,26 +7854,26 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="61">
+      <c r="E7" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="60">
         <v>22224</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>127</v>
+      <c r="G7" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="I7" s="35">
         <v>43921042</v>
@@ -7588,26 +7890,26 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="60" t="s">
+      <c r="B8" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="61">
+      <c r="E8" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="60">
         <v>23887</v>
       </c>
-      <c r="G8" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>128</v>
+      <c r="G8" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>127</v>
       </c>
       <c r="I8" s="35">
         <v>19823413</v>
@@ -7624,26 +7926,26 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="61">
+      <c r="E9" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="60">
         <v>29635</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>129</v>
+      <c r="G9" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>128</v>
       </c>
       <c r="I9" s="35">
         <v>10941234</v>
@@ -7660,13 +7962,13 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="3"/>
       <c r="K10" s="22" t="s">
         <v>68</v>
@@ -7719,7 +8021,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7728,7 +8030,7 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -7740,44 +8042,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="G1" s="97" t="s">
+      <c r="A1" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="G1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="L1" s="97" t="s">
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="L1" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>57</v>
@@ -7789,7 +8091,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>57</v>
@@ -7802,21 +8104,21 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
-        <v>1234</v>
-      </c>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="65">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="67">
-        <v>2</v>
-      </c>
-      <c r="D3" s="76">
+      <c r="C3" s="66">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="75">
         <v>25000</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="76">
         <f>cant*precio</f>
-        <v>50000</v>
+        <v>50000000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>52</v>
@@ -7846,21 +8148,21 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
-        <v>3241</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="68">
+        <v>2</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="70">
-        <v>5</v>
-      </c>
-      <c r="D4" s="78">
+      <c r="C4" s="69">
+        <v>5400</v>
+      </c>
+      <c r="D4" s="77">
         <v>6500</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="78">
         <f>cant*precio</f>
-        <v>32500</v>
+        <v>35100000</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>54</v>
@@ -7890,21 +8192,21 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
-        <v>2154</v>
-      </c>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c r="B5" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="67">
-        <v>2</v>
-      </c>
-      <c r="D5" s="76">
+      <c r="C5" s="66">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="75">
         <v>56000</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="76">
         <f>cant*precio</f>
-        <v>112000</v>
+        <v>84000000</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>56</v>
@@ -7934,21 +8236,21 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
-        <v>2143</v>
-      </c>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="68">
+        <v>4</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="70">
-        <v>3</v>
-      </c>
-      <c r="D6" s="78">
+      <c r="C6" s="69">
+        <v>3200</v>
+      </c>
+      <c r="D6" s="77">
         <v>32000</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="78">
         <f>cant*precio</f>
-        <v>96000</v>
+        <v>102400000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>53</v>
@@ -7978,21 +8280,21 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
-        <v>5421</v>
-      </c>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="56">
+        <v>5</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="56">
-        <v>2</v>
-      </c>
-      <c r="D7" s="80">
+      <c r="C7" s="55">
+        <v>2400</v>
+      </c>
+      <c r="D7" s="79">
         <v>5000</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="80">
         <f>cant*precio</f>
-        <v>10000</v>
+        <v>12000000</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>55</v>
@@ -8022,87 +8324,90 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="L8" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="L8" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
+      <c r="D10" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="55"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
+      <c r="D11" s="54"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G8:J14"/>
     <mergeCell ref="L8:O14"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8114,17 +8419,18 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="3.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" customWidth="1"/>
+    <col min="34" max="34" width="6.28515625" customWidth="1"/>
     <col min="35" max="35" width="3.7109375" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -8134,15 +8440,15 @@
   <sheetData>
     <row r="1" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="38">
+        <v>134</v>
+      </c>
+      <c r="B1" s="37">
         <v>44197</v>
       </c>
       <c r="C1" s="31">
         <v>44198</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>44199</v>
       </c>
       <c r="E1" s="31">
@@ -8163,7 +8469,7 @@
       <c r="J1" s="31">
         <v>44205</v>
       </c>
-      <c r="K1" s="38">
+      <c r="K1" s="37">
         <v>44206</v>
       </c>
       <c r="L1" s="31">
@@ -8184,7 +8490,7 @@
       <c r="Q1" s="31">
         <v>44212</v>
       </c>
-      <c r="R1" s="38">
+      <c r="R1" s="37">
         <v>44213</v>
       </c>
       <c r="S1" s="31">
@@ -8205,7 +8511,7 @@
       <c r="X1" s="31">
         <v>44219</v>
       </c>
-      <c r="Y1" s="38">
+      <c r="Y1" s="37">
         <v>44220</v>
       </c>
       <c r="Z1" s="31">
@@ -8226,14 +8532,14 @@
       <c r="AE1" s="31">
         <v>44226</v>
       </c>
-      <c r="AF1" s="38">
+      <c r="AF1" s="37">
         <v>44227</v>
       </c>
       <c r="AG1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH1" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="AH1" s="33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -8241,148 +8547,148 @@
         <f>CONCATENATE(CLIENTES!$C3," ",CLIENTES!$B3)</f>
         <v>Cristián Damián Racedo</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="K2" s="38"/>
       <c r="L2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="R2" s="38"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="36">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="122">
         <f t="shared" ref="AG2:AG8" si="0">COUNTA($B2:$AF2)</f>
         <v>17</v>
       </c>
-      <c r="AH2" s="36">
+      <c r="AH2" s="122">
         <f t="shared" ref="AH2:AH8" si="1">COUNTBLANK($B2:$AF2)</f>
         <v>14</v>
       </c>
-      <c r="AJ2" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" s="95"/>
+      <c r="AJ2" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="94"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="str">
         <f>CONCATENATE(CLIENTES!$C4," ",CLIENTES!$B4)</f>
         <v>Tomas Gonzalo Alvarez</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="40"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="39"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
       <c r="O3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="R3" s="38"/>
       <c r="S3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y3" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="Y3" s="38"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="36">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="122">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AH3" s="36">
+      <c r="AH3" s="122">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AJ3" s="53" t="s">
-        <v>91</v>
+      <c r="AJ3" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="AK3" s="2">
         <f>MIN(AG2:AG8)</f>
@@ -8394,79 +8700,79 @@
         <f>CONCATENATE(CLIENTES!$C5," ",CLIENTES!$B5)</f>
         <v>Joaquin Daniel Carballo</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="40"/>
+        <v>80</v>
+      </c>
+      <c r="D4" s="39"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="K4" s="38"/>
       <c r="L4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="R4" s="38"/>
       <c r="S4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="Y4" s="38"/>
       <c r="Z4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="36">
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="122">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AH4" s="36">
+      <c r="AH4" s="122">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AJ4" s="52" t="s">
-        <v>92</v>
+      <c r="AJ4" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="AK4" s="2">
         <f>MAX(AG2:AG8)</f>
@@ -8478,237 +8784,237 @@
         <f>CONCATENATE(CLIENTES!$C6," ",CLIENTES!$B6)</f>
         <v>Soledad Aimara Luna</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="40"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="39"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="K5" s="38"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="39"/>
+      <c r="R5" s="38"/>
       <c r="S5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="Y5" s="38"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="36">
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="122">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH5" s="36">
+      <c r="AH5" s="122">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ5" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK5" s="48">
+      <c r="AJ5" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK5" s="47">
         <f>AVERAGE(AG2:AG8)</f>
         <v>14.428571428571429</v>
       </c>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="44"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="str">
         <f>CONCATENATE(CLIENTES!$C7," ",CLIENTES!$B7)</f>
         <v>Camilo Alberto Sesto</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="K6" s="38"/>
       <c r="L6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="R6" s="38"/>
       <c r="S6" s="2"/>
       <c r="T6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="Y6" s="38"/>
       <c r="Z6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="36">
+        <v>80</v>
+      </c>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="122">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AH6" s="36">
+      <c r="AH6" s="122">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AJ6" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK6" s="49">
+      <c r="AJ6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK6" s="48">
         <f>ROUND(AK5,2)</f>
         <v>14.43</v>
       </c>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="44"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="str">
         <f>CONCATENATE(CLIENTES!$C8," ",CLIENTES!$B8)</f>
         <v>Roberto Miguel Sanchez</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="40"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="K7" s="38"/>
       <c r="L7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="39"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="2"/>
       <c r="T7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y7" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="Y7" s="38"/>
       <c r="Z7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="36">
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="122">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH7" s="36">
+      <c r="AH7" s="122">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AJ7" s="52" t="s">
-        <v>89</v>
+      <c r="AJ7" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="AK7" s="2">
         <f>MODE(AG2:AG8)</f>
@@ -8720,83 +9026,83 @@
         <f>CONCATENATE(CLIENTES!$C9," ",CLIENTES!$B9)</f>
         <v>Nino Antonio Bravo</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="41"/>
+        <v>80</v>
+      </c>
+      <c r="D8" s="40"/>
       <c r="E8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="K8" s="41"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" s="34"/>
       <c r="Q8" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="R8" s="41"/>
       <c r="S8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V8" s="34"/>
       <c r="W8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X8" s="34"/>
-      <c r="Y8" s="42"/>
+      <c r="Y8" s="41"/>
       <c r="Z8" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB8" s="34"/>
       <c r="AC8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD8" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE8" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="37">
+        <v>80</v>
+      </c>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="123">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AH8" s="37">
+      <c r="AH8" s="123">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AJ8" s="52" t="s">
-        <v>90</v>
+      <c r="AJ8" s="51" t="s">
+        <v>89</v>
       </c>
       <c r="AK8" s="2">
         <f>MEDIAN(AG2:AG8)</f>
@@ -8805,14 +9111,14 @@
     </row>
     <row r="9" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="39"/>
+        <v>105</v>
+      </c>
+      <c r="B9" s="38"/>
       <c r="C9" s="36">
         <f>COUNTA(C$2:C$8)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="36">
         <f t="shared" ref="E9:AE9" si="2">COUNTA(E$2:E$8)</f>
         <v>4</v>
@@ -8837,7 +9143,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K9" s="39"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8862,7 +9168,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R9" s="39"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8887,7 +9193,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Y9" s="39"/>
+      <c r="Y9" s="38"/>
       <c r="Z9" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8912,17 +9218,17 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="43">
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="42">
         <f>COUNT(B9:AF9)</f>
         <v>25</v>
       </c>
-      <c r="AH9" s="43">
+      <c r="AH9" s="42">
         <f>COUNTBLANK(B9:AF9)</f>
         <v>6</v>
       </c>
-      <c r="AJ9" s="52" t="s">
-        <v>130</v>
+      <c r="AJ9" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="AK9" s="2">
         <f>TREND(AG2:AG8)</f>
@@ -8930,18 +9236,18 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>84</v>
+      <c r="B11" s="43" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
-        <v>86</v>
+      <c r="B12" s="43" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>85</v>
+      <c r="B13" s="43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -8949,9 +9255,69 @@
     <mergeCell ref="AJ2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="AG2:AG8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{02DD6415-89DF-451A-91AC-83559C917D5B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{36CA5193-FA49-460C-802E-39A1797A245A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{02DD6415-89DF-451A-91AC-83559C917D5B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AG2:AG8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{36CA5193-FA49-460C-802E-39A1797A245A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AH2:AH8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8988,16 +9354,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>0</v>
@@ -9006,22 +9372,22 @@
         <v>1</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>134</v>
-      </c>
       <c r="L1" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>114</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>115</v>
       </c>
       <c r="P1" s="4">
         <f ca="1">TODAY()</f>
@@ -9073,16 +9439,16 @@
         <f t="shared" ref="L2:L8" si="4">LEN(A2)</f>
         <v>22</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="50">
         <f ca="1">$P$5-YEAR(CLIENTES!F3)</f>
         <v>30</v>
       </c>
-      <c r="O2" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="50">
+      <c r="O2" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="49">
         <f ca="1">NOW()</f>
-        <v>44239.855529745371</v>
+        <v>44239.923302430558</v>
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -9130,12 +9496,12 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="50">
         <f ca="1">$P$5-YEAR(CLIENTES!F4)</f>
         <v>51</v>
       </c>
-      <c r="O3" s="54" t="s">
-        <v>117</v>
+      <c r="O3" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="P3" s="2">
         <f ca="1">DAY(P2)</f>
@@ -9187,12 +9553,12 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="50">
         <f ca="1">$P$5-YEAR(CLIENTES!F5)</f>
         <v>26</v>
       </c>
-      <c r="O4" s="54" t="s">
-        <v>118</v>
+      <c r="O4" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="P4" s="2">
         <f ca="1">MONTH(P2)</f>
@@ -9244,12 +9610,12 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="50">
         <f ca="1">$P$5-YEAR(CLIENTES!F6)</f>
         <v>22</v>
       </c>
-      <c r="O5" s="54" t="s">
-        <v>119</v>
+      <c r="O5" s="53" t="s">
+        <v>118</v>
       </c>
       <c r="P5" s="2">
         <f ca="1">YEAR(P2)</f>
@@ -9301,16 +9667,16 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="50">
         <f ca="1">$P$5-YEAR(CLIENTES!F7)</f>
         <v>61</v>
       </c>
-      <c r="O6" s="54" t="s">
-        <v>120</v>
+      <c r="O6" s="53" t="s">
+        <v>119</v>
       </c>
       <c r="P6" s="2">
         <f ca="1">HOUR(P2)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -9358,16 +9724,16 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="50">
         <f ca="1">$P$5-YEAR(CLIENTES!F8)</f>
         <v>56</v>
       </c>
-      <c r="O7" s="54" t="s">
-        <v>121</v>
+      <c r="O7" s="53" t="s">
+        <v>120</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">MINUTE(P2)</f>
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -9415,102 +9781,102 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="50">
         <f ca="1">$P$5-YEAR(CLIENTES!F9)</f>
         <v>40</v>
       </c>
-      <c r="O8" s="54" t="s">
-        <v>122</v>
+      <c r="O8" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="P8" s="2">
         <f ca="1">SECOND(P2)</f>
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
+      <c r="A10" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
+      <c r="A11" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
+      <c r="A12" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
+      <c r="A13" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
+      <c r="A14" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E8" xr:uid="{722EB72B-60F8-483D-BB78-999B40EDD02D}">
@@ -9538,7 +9904,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9551,557 +9917,557 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="81" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="E1" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="88" t="s">
-        <v>210</v>
+      <c r="I1" s="87" t="s">
+        <v>209</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="str">
+      <c r="A2" s="65" t="str">
         <f>PRESENTISMO!$A2</f>
         <v>Cristián Damián Racedo</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="66">
         <v>8</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="66">
         <v>9</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="66">
         <v>9</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="67">
         <f>IF(AND(B2&gt;=0,B2&lt;=10,C2&gt;=0,C2&lt;=10,D2&gt;=0,D2&lt;=10),AVERAGE(B2:D2),"corregir notas")</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="F2" s="121" t="str">
+      <c r="F2" s="111" t="str">
         <f>IF(AND(B2&gt;=7,C2&gt;=7,D2&gt;=7),"si","no")</f>
         <v>si</v>
       </c>
-      <c r="G2" s="121" t="str">
+      <c r="G2" s="111" t="str">
         <f>IF(E2&gt;10,"no valido",IF(E2&gt;=7,"aprobado",IF(E2&gt;=4,"regular",IF(E2&gt;=0,"aplazo","no valido"))))</f>
         <v>aprobado</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="87" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="str">
+      <c r="A3" s="68" t="str">
         <f>PRESENTISMO!$A3</f>
         <v>Tomas Gonzalo Alvarez</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="69">
         <v>4</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="69">
         <v>7</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <v>8</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="70">
         <f>IF(AND(B3&gt;=0,B3&lt;=10,C3&gt;=0,C3&lt;=10,D3&gt;=0,D3&lt;=10),AVERAGE(B3:D3),"corregir notas")</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="F3" s="122" t="str">
+      <c r="F3" s="112" t="str">
         <f t="shared" ref="F3:F8" si="0">IF(AND(B3&gt;=7,C3&gt;=7,D3&gt;=7),"si","no")</f>
         <v>no</v>
       </c>
-      <c r="G3" s="122" t="str">
+      <c r="G3" s="112" t="str">
         <f t="shared" ref="G3:G8" si="1">IF(E3&gt;10,"Valor mayor a 10",IF(E3&gt;=7,"aprobado",IF(E3&gt;=4,"regular",IF(E3&gt;=0,"aplazo","Valor menor que 0"))))</f>
         <v>regular</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="86" t="s">
         <v>202</v>
-      </c>
-      <c r="K3" s="87" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="str">
+      <c r="A4" s="65" t="str">
         <f>PRESENTISMO!$A4</f>
         <v>Joaquin Daniel Carballo</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <v>1</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <v>3</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="66">
         <v>5</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="67">
         <f t="shared" ref="E4:E8" si="2">IF(AND(B4&gt;=0,B4&lt;=10,C4&gt;=0,C4&lt;=10,D4&gt;=0,D4&lt;=10),AVERAGE(B4:D4),"corregir notas")</f>
         <v>3</v>
       </c>
-      <c r="F4" s="121" t="str">
+      <c r="F4" s="111" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="G4" s="121" t="str">
+      <c r="G4" s="111" t="str">
         <f t="shared" si="1"/>
         <v>aplazo</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="81"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="str">
+      <c r="A5" s="68" t="str">
         <f>PRESENTISMO!$A5</f>
         <v>Soledad Aimara Luna</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="69">
         <v>8</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="69">
         <v>9</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="69">
         <v>8</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="70">
         <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="F5" s="122" t="str">
+      <c r="F5" s="112" t="str">
         <f t="shared" si="0"/>
         <v>si</v>
       </c>
-      <c r="G5" s="122" t="str">
+      <c r="G5" s="112" t="str">
         <f t="shared" si="1"/>
         <v>aprobado</v>
       </c>
-      <c r="I5" s="88" t="s">
-        <v>211</v>
+      <c r="I5" s="87" t="s">
+        <v>210</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="str">
+      <c r="A6" s="65" t="str">
         <f>PRESENTISMO!$A6</f>
         <v>Camilo Alberto Sesto</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="66">
         <v>9</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="66">
         <v>8</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="66">
         <v>6</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="67">
         <f t="shared" si="2"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="F6" s="121" t="str">
+      <c r="F6" s="111" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="G6" s="121" t="str">
+      <c r="G6" s="111" t="str">
         <f t="shared" si="1"/>
         <v>aprobado</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="str">
+      <c r="A7" s="68" t="str">
         <f>PRESENTISMO!$A7</f>
         <v>Roberto Miguel Sanchez</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="69">
         <v>6</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="69">
         <v>5</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <v>5</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="70">
         <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="F7" s="122" t="str">
+      <c r="F7" s="112" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="G7" s="122" t="str">
+      <c r="G7" s="112" t="str">
         <f t="shared" si="1"/>
         <v>regular</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" s="86" t="s">
         <v>208</v>
-      </c>
-      <c r="K7" s="87" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="str">
+      <c r="A8" s="56" t="str">
         <f>PRESENTISMO!$A8</f>
         <v>Nino Antonio Bravo</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <v>4</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>2</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <v>3</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F8" s="121" t="str">
+      <c r="F8" s="111" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="G8" s="121" t="str">
+      <c r="G8" s="111" t="str">
         <f t="shared" si="1"/>
         <v>aplazo</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="81"/>
       <c r="J8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="117"/>
+      <c r="A10" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="118"/>
+      <c r="D11" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="119"/>
+        <v>162</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="109"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="118"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="108"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="101" t="s">
+      <c r="C14" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="118"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="108"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="101" t="e">
+      <c r="C15" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="99" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="118"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="108"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="118"/>
+      <c r="C16" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="108"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="108"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="117"/>
+      <c r="A18" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="118"/>
+      <c r="A19" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="108"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="118"/>
+      <c r="A20" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="108"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>179</v>
+      <c r="A21" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>178</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="118"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="108"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="84" t="s">
-        <v>179</v>
+      <c r="A22" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>178</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="118"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="108"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="84" t="s">
-        <v>179</v>
+      <c r="A23" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="118"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="108"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="84" t="s">
-        <v>179</v>
-      </c>
       <c r="C24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="118"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="108"/>
     </row>
     <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="85" t="s">
+      <c r="D25" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="118"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10121,6 +10487,15 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D16:G16"/>
   </mergeCells>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10128,60 +10503,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D34E905-AC8B-42E5-B03E-7AF49D6EBB64}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="124" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="D1" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="124" t="s">
-        <v>214</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>213</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="str">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="str">
         <f>NOTAS!A2</f>
         <v>Cristián Damián Racedo</v>
       </c>
-      <c r="B2" s="110">
+      <c r="B2" s="119">
         <v>30</v>
       </c>
-      <c r="C2" s="114">
+      <c r="C2" s="120">
         <v>50000</v>
       </c>
-      <c r="D2" s="114">
+      <c r="D2" s="121">
         <f>IF(AND(B2&gt;=obj_ventas,C2&gt;=obj_monto),C2*com_total,IF(OR(B2&gt;=obj_ventas,C2&gt;=obj_monto),C2*com_parcial,C2*com_nada))</f>
         <v>10000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="2">
         <v>25</v>
@@ -10191,147 +10570,209 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="str">
+      <c r="A3" s="118" t="str">
         <f>NOTAS!A3</f>
         <v>Tomas Gonzalo Alvarez</v>
       </c>
-      <c r="B3" s="112">
+      <c r="B3" s="119">
         <v>20</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="120">
         <v>120000</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="121">
         <f>IF(AND(B3&gt;=obj_ventas,C3&gt;=obj_monto),C3*com_total,IF(OR(B3&gt;=obj_ventas,C3&gt;=obj_monto),C3*com_parcial,C3*com_nada))</f>
         <v>12000</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="str">
+      <c r="A4" s="118" t="str">
         <f>NOTAS!A4</f>
         <v>Joaquin Daniel Carballo</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="119">
         <v>60</v>
       </c>
-      <c r="C4" s="116">
-        <v>30000</v>
-      </c>
-      <c r="D4" s="116">
+      <c r="C4" s="120">
+        <v>40000</v>
+      </c>
+      <c r="D4" s="121">
         <f>IF(AND(B4&gt;=obj_ventas,C4&gt;=obj_monto),C4*com_total,IF(OR(B4&gt;=obj_ventas,C4&gt;=obj_monto),C4*com_parcial,C4*com_nada))</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="str">
+      <c r="A5" s="118" t="str">
         <f>NOTAS!A5</f>
         <v>Soledad Aimara Luna</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="119">
         <v>25</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="120">
         <v>60000</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="121">
         <f>IF(AND(B5&gt;=obj_ventas,C5&gt;=obj_monto),C5*com_total,IF(OR(B5&gt;=obj_ventas,C5&gt;=obj_monto),C5*com_parcial,C5*com_nada))</f>
         <v>12000</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="105">
         <v>0.2</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="105">
         <v>0.1</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="105">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="str">
+      <c r="A6" s="118" t="str">
         <f>NOTAS!A6</f>
         <v>Camilo Alberto Sesto</v>
       </c>
-      <c r="B6" s="107">
+      <c r="B6" s="119">
         <v>10</v>
       </c>
-      <c r="C6" s="116">
-        <v>25000</v>
-      </c>
-      <c r="D6" s="116">
+      <c r="C6" s="120">
+        <v>32000</v>
+      </c>
+      <c r="D6" s="121">
         <f>IF(AND(B6&gt;=obj_ventas,C6&gt;=obj_monto),C6*com_total,IF(OR(B6&gt;=obj_ventas,C6&gt;=obj_monto),C6*com_parcial,C6*com_nada))</f>
-        <v>500</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="str">
+      <c r="A7" s="118" t="str">
         <f>NOTAS!A7</f>
         <v>Roberto Miguel Sanchez</v>
       </c>
-      <c r="B7" s="112">
-        <v>5</v>
-      </c>
-      <c r="C7" s="115">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="115">
+      <c r="B7" s="119">
+        <v>40</v>
+      </c>
+      <c r="C7" s="120">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="121">
         <f>IF(AND(B7&gt;=obj_ventas,C7&gt;=obj_monto),C7*com_total,IF(OR(B7&gt;=obj_ventas,C7&gt;=obj_monto),C7*com_parcial,C7*com_nada))</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="str">
+      <c r="A8" s="118" t="str">
         <f>NOTAS!A8</f>
         <v>Nino Antonio Bravo</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="119">
         <v>15</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="120">
         <v>10000</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="121">
         <f>IF(AND(B8&gt;=obj_ventas,C8&gt;=obj_monto),C8*com_total,IF(OR(B8&gt;=obj_ventas,C8&gt;=obj_monto),C8*com_parcial,C8*com_nada))</f>
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="113">
         <f>SUM(B$2:B$8)</f>
-        <v>165</v>
-      </c>
-      <c r="C9" s="126">
+        <v>200</v>
+      </c>
+      <c r="C9" s="114">
         <f t="shared" ref="C9:D9" si="0">SUM(C$2:C$8)</f>
-        <v>300000</v>
-      </c>
-      <c r="D9" s="126">
+        <v>327000</v>
+      </c>
+      <c r="D9" s="114">
         <f t="shared" si="0"/>
-        <v>37800</v>
+        <v>40340</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:H3"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F140C16-79F9-4CD8-8EA9-8B724ED15E69}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C8">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="25000"/>
+        <cfvo type="num" val="37500"/>
+        <cfvo type="num" val="50000"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F140C16-79F9-4CD8-8EA9-8B724ED15E69}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{5DA3F2F9-B4A3-459E-BA64-812F24148A8C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5000</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25000</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D2:D8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10342,7 +10783,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -10352,4 +10793,717 @@
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1B513B-1055-4032-8831-EA230870A534}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="126" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" s="106"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="127">
+        <f>CLIENTES!A3</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="127" t="str">
+        <f>_xlfn.CONCAT(CLIENTES!B3," ",CLIENTES!C3)</f>
+        <v>Racedo Cristián Damián</v>
+      </c>
+      <c r="C2" s="127">
+        <f>COUNTIF(venta_emp,A2)</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="136">
+        <f>SUMIF(venta_emp,A2,venta_total)</f>
+        <v>168000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21">
+        <f>IF($G2=1,$D$11,IF($G2=2,$D$12,IF($G2=3,$D$13,IF($G2=4,$D$14,IF($G2=5,$D$15,"cod. Invalido")))))</f>
+        <v>6500</v>
+      </c>
+      <c r="J2" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>13000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2">
+        <f>COUNT(venta_emp)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="125">
+        <f>CLIENTES!A4</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="125" t="str">
+        <f>_xlfn.CONCAT(CLIENTES!B4," ",CLIENTES!C4)</f>
+        <v>Alvarez Tomas Gonzalo</v>
+      </c>
+      <c r="C3" s="125">
+        <f>COUNTIF(venta_emp,A3)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="137">
+        <f>SUMIF(venta_emp,A3,venta_total)</f>
+        <v>218000</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <f>IF($G3=1,$D$11,IF($G3=2,$D$12,IF($G3=3,$D$13,IF($G3=4,$D$14,IF($G3=5,$D$15,"cod. Invalido")))))</f>
+        <v>56000</v>
+      </c>
+      <c r="J3" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>56000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" s="21">
+        <f>SUM(venta_total)</f>
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="124">
+        <f>CLIENTES!A5</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="124" t="str">
+        <f>_xlfn.CONCAT(CLIENTES!B5," ",CLIENTES!C5)</f>
+        <v>Carballo Joaquin Daniel</v>
+      </c>
+      <c r="C4" s="124">
+        <f>COUNTIF(venta_emp,A4)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="138">
+        <f>SUMIF(venta_emp,A4,venta_total)</f>
+        <v>101000</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="21">
+        <f>IF($G4=1,$D$11,IF($G4=2,$D$12,IF($G4=3,$D$13,IF($G4=4,$D$14,IF($G4=5,$D$15,"cod. Invalido")))))</f>
+        <v>32000</v>
+      </c>
+      <c r="J4" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="125">
+        <f>CLIENTES!A6</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="125" t="str">
+        <f>_xlfn.CONCAT(CLIENTES!B6," ",CLIENTES!C6)</f>
+        <v>Luna Soledad Aimara</v>
+      </c>
+      <c r="C5" s="125">
+        <f>COUNTIF(venta_emp,A5)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="137">
+        <f>SUMIF(venta_emp,A5,venta_total)</f>
+        <v>448000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="21">
+        <f>IF($G5=1,$D$11,IF($G5=2,$D$12,IF($G5=3,$D$13,IF($G5=4,$D$14,IF($G5=5,$D$15,"cod. Invalido")))))</f>
+        <v>5000</v>
+      </c>
+      <c r="J5" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="124">
+        <f>CLIENTES!A7</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="124" t="str">
+        <f>_xlfn.CONCAT(CLIENTES!B7," ",CLIENTES!C7)</f>
+        <v>Sesto Camilo Alberto</v>
+      </c>
+      <c r="C6" s="124">
+        <f>COUNTIF(venta_emp,A6)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="138">
+        <f>SUMIF(venta_emp,A6,venta_total)</f>
+        <v>240000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21">
+        <f>IF($G6=1,$D$11,IF($G6=2,$D$12,IF($G6=3,$D$13,IF($G6=4,$D$14,IF($G6=5,$D$15,"cod. Invalido")))))</f>
+        <v>32000</v>
+      </c>
+      <c r="J6" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="125">
+        <f>CLIENTES!A8</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="125" t="str">
+        <f>_xlfn.CONCAT(CLIENTES!B8," ",CLIENTES!C8)</f>
+        <v>Sanchez Roberto Miguel</v>
+      </c>
+      <c r="C7" s="125">
+        <f>COUNTIF(venta_emp,A7)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="137">
+        <f>SUMIF(venta_emp,A7,venta_total)</f>
+        <v>60000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21">
+        <f>IF($G7=1,$D$11,IF($G7=2,$D$12,IF($G7=3,$D$13,IF($G7=4,$D$14,IF($G7=5,$D$15,"cod. Invalido")))))</f>
+        <v>25000</v>
+      </c>
+      <c r="J7" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="124">
+        <f>CLIENTES!A9</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="124" t="str">
+        <f>_xlfn.CONCAT(CLIENTES!B9," ",CLIENTES!C9)</f>
+        <v>Bravo Nino Antonio</v>
+      </c>
+      <c r="C8" s="124">
+        <f>COUNTIF(venta_emp,A8)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="138">
+        <f>SUMIF(venta_emp,A8,venta_total)</f>
+        <v>25000</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="21">
+        <f>IF($G8=1,$D$11,IF($G8=2,$D$12,IF($G8=3,$D$13,IF($G8=4,$D$14,IF($G8=5,$D$15,"cod. Invalido")))))</f>
+        <v>6500</v>
+      </c>
+      <c r="J8" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="125">
+        <f>SUM(C2:C8)</f>
+        <v>21</v>
+      </c>
+      <c r="D9" s="137">
+        <f>SUM(D2:D8)</f>
+        <v>1260000</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
+        <f>IF($G9=1,$D$11,IF($G9=2,$D$12,IF($G9=3,$D$13,IF($G9=4,$D$14,IF($G9=5,$D$15,"cod. Invalido")))))</f>
+        <v>56000</v>
+      </c>
+      <c r="J9" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="132" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="21">
+        <f>IF($G10=1,$D$11,IF($G10=2,$D$12,IF($G10=3,$D$13,IF($G10=4,$D$14,IF($G10=5,$D$15,"cod. Invalido")))))</f>
+        <v>56000</v>
+      </c>
+      <c r="J10" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="129">
+        <f>ARTICULOS!A3</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>LOWER(ARTICULOS!B3)</f>
+        <v>aspiradora</v>
+      </c>
+      <c r="C11" s="2">
+        <f>ARTICULOS!C3</f>
+        <v>2000</v>
+      </c>
+      <c r="D11" s="130">
+        <f>ARTICULOS!D3</f>
+        <v>25000</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="21">
+        <f>IF($G11=1,$D$11,IF($G11=2,$D$12,IF($G11=3,$D$13,IF($G11=4,$D$14,IF($G11=5,$D$15,"cod. Invalido")))))</f>
+        <v>5000</v>
+      </c>
+      <c r="J11" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="129">
+        <f>ARTICULOS!A4</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>LOWER(ARTICULOS!B4)</f>
+        <v>secarropas</v>
+      </c>
+      <c r="C12" s="2">
+        <f>ARTICULOS!C4</f>
+        <v>5400</v>
+      </c>
+      <c r="D12" s="130">
+        <f>ARTICULOS!D4</f>
+        <v>6500</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21">
+        <f>IF($G12=1,$D$11,IF($G12=2,$D$12,IF($G12=3,$D$13,IF($G12=4,$D$14,IF($G12=5,$D$15,"cod. Invalido")))))</f>
+        <v>5000</v>
+      </c>
+      <c r="J12" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="129">
+        <f>ARTICULOS!A5</f>
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>LOWER(ARTICULOS!B5)</f>
+        <v>aire acond.</v>
+      </c>
+      <c r="C13" s="2">
+        <f>ARTICULOS!C5</f>
+        <v>1500</v>
+      </c>
+      <c r="D13" s="130">
+        <f>ARTICULOS!D5</f>
+        <v>56000</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <f>IF($G13=1,$D$11,IF($G13=2,$D$12,IF($G13=3,$D$13,IF($G13=4,$D$14,IF($G13=5,$D$15,"cod. Invalido")))))</f>
+        <v>32000</v>
+      </c>
+      <c r="J13" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="129">
+        <f>ARTICULOS!A6</f>
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>LOWER(ARTICULOS!B6)</f>
+        <v>lavarropas</v>
+      </c>
+      <c r="C14" s="2">
+        <f>ARTICULOS!C6</f>
+        <v>3200</v>
+      </c>
+      <c r="D14" s="130">
+        <f>ARTICULOS!D6</f>
+        <v>32000</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="21">
+        <f>IF($G14=1,$D$11,IF($G14=2,$D$12,IF($G14=3,$D$13,IF($G14=4,$D$14,IF($G14=5,$D$15,"cod. Invalido")))))</f>
+        <v>56000</v>
+      </c>
+      <c r="J14" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="134">
+        <f>ARTICULOS!A7</f>
+        <v>5</v>
+      </c>
+      <c r="B15" s="34" t="str">
+        <f>LOWER(ARTICULOS!B7)</f>
+        <v>ventilador</v>
+      </c>
+      <c r="C15" s="34">
+        <f>ARTICULOS!C7</f>
+        <v>2400</v>
+      </c>
+      <c r="D15" s="135">
+        <f>ARTICULOS!D7</f>
+        <v>5000</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21">
+        <f>IF($G15=1,$D$11,IF($G15=2,$D$12,IF($G15=3,$D$13,IF($G15=4,$D$14,IF($G15=5,$D$15,"cod. Invalido")))))</f>
+        <v>25000</v>
+      </c>
+      <c r="J15" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="21">
+        <f>IF($G16=1,$D$11,IF($G16=2,$D$12,IF($G16=3,$D$13,IF($G16=4,$D$14,IF($G16=5,$D$15,"cod. Invalido")))))</f>
+        <v>6500</v>
+      </c>
+      <c r="J16" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <f>IF($G17=1,$D$11,IF($G17=2,$D$12,IF($G17=3,$D$13,IF($G17=4,$D$14,IF($G17=5,$D$15,"cod. Invalido")))))</f>
+        <v>25000</v>
+      </c>
+      <c r="J17" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="21">
+        <f>IF($G18=1,$D$11,IF($G18=2,$D$12,IF($G18=3,$D$13,IF($G18=4,$D$14,IF($G18=5,$D$15,"cod. Invalido")))))</f>
+        <v>25000</v>
+      </c>
+      <c r="J18" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="21">
+        <f>IF($G19=1,$D$11,IF($G19=2,$D$12,IF($G19=3,$D$13,IF($G19=4,$D$14,IF($G19=5,$D$15,"cod. Invalido")))))</f>
+        <v>56000</v>
+      </c>
+      <c r="J19" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" s="21">
+        <f>IF($G20=1,$D$11,IF($G20=2,$D$12,IF($G20=3,$D$13,IF($G20=4,$D$14,IF($G20=5,$D$15,"cod. Invalido")))))</f>
+        <v>56000</v>
+      </c>
+      <c r="J20" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="21">
+        <f>IF($G21=1,$D$11,IF($G21=2,$D$12,IF($G21=3,$D$13,IF($G21=4,$D$14,IF($G21=5,$D$15,"cod. Invalido")))))</f>
+        <v>5000</v>
+      </c>
+      <c r="J21" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
+        <f>IF($G22=1,$D$11,IF($G22=2,$D$12,IF($G22=3,$D$13,IF($G22=4,$D$14,IF($G22=5,$D$15,"cod. Invalido")))))</f>
+        <v>32000</v>
+      </c>
+      <c r="J22" s="21">
+        <f>venta_cant*venta_precio</f>
+        <v>32000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:J9">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>"$F2=1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:J10">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>"$F2=1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-v-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5859B99E-FABD-4C35-B59A-A1F2E36EABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7FC49-20AD-4D92-B35E-41AEAC45C06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56B30104-99EE-4DD6-9022-7C4FE03B5E61}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formatos" sheetId="1" r:id="rId1"/>
+    <sheet name="Empleados" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Formato</t>
   </si>
@@ -55,18 +56,221 @@
   </si>
   <si>
     <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Columnas</t>
+  </si>
+  <si>
+    <t>Filas</t>
+  </si>
+  <si>
+    <t>Celdas</t>
+  </si>
+  <si>
+    <t>Rango Gral</t>
+  </si>
+  <si>
+    <t>C:C</t>
+  </si>
+  <si>
+    <t>C1:C10</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>A1:H1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>A1:B12</t>
+  </si>
+  <si>
+    <t>Rango Fijo</t>
+  </si>
+  <si>
+    <t>Rango Exacto</t>
+  </si>
+  <si>
+    <t>$C1:$C10</t>
+  </si>
+  <si>
+    <t>A$1:H$1</t>
+  </si>
+  <si>
+    <t>$A$1:$B$12</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Fecha Nac.</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Racedo</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>sucasa</t>
+  </si>
+  <si>
+    <t>Glew</t>
+  </si>
+  <si>
+    <t>Sigmund</t>
+  </si>
+  <si>
+    <t>Freud</t>
+  </si>
+  <si>
+    <t>Corleone</t>
+  </si>
+  <si>
+    <t>Vitto</t>
+  </si>
+  <si>
+    <t>12/46/56</t>
+  </si>
+  <si>
+    <t>Nac</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Alemana</t>
+  </si>
+  <si>
+    <t>Italiana</t>
+  </si>
+  <si>
+    <t>FORMULAS</t>
+  </si>
+  <si>
+    <t>FUNCIONES</t>
+  </si>
+  <si>
+    <t>Operaciones que se utilizan obtener un resultado, normalmente engloba las operaciones matematicas basicas y solo pueden operar con valores validos.</t>
+  </si>
+  <si>
+    <t>Operaciones con nombres clave que nos permite realizar excel para obtener un resultado, si existen valores no validos, estas los ignoran</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>Valor1</t>
+  </si>
+  <si>
+    <t>valor2</t>
+  </si>
+  <si>
+    <t>operación</t>
+  </si>
+  <si>
+    <t>SUMA()</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRODUCTO()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +292,29 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +327,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -126,28 +403,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
+    <cellStyle name="40% - Énfasis1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Énfasis5" xfId="7" builtinId="47"/>
+    <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
+    <cellStyle name="Énfasis5" xfId="5" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -184,8 +615,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
@@ -204,7 +635,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Entrada de lápiz 5">
@@ -264,6 +695,19 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
 </inkml:ink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BE75D-D6D8-44BD-A0DA-A32B99EC2154}" name="Tabla1" displayName="Tabla1" ref="D1:G4" totalsRowShown="0">
+  <autoFilter ref="D1:G4" xr:uid="{173BE75D-D6D8-44BD-A0DA-A32B99EC2154}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{28CD16B4-BF1C-4E14-87B0-3967C63AF460}" name="Tipo"/>
+    <tableColumn id="2" xr3:uid="{7C8046F8-EAC3-4F94-9F66-C2A3A3E80211}" name="Rango Gral"/>
+    <tableColumn id="3" xr3:uid="{59BC775B-C3DF-4BFC-822E-C429F58846B7}" name="Rango Exacto"/>
+    <tableColumn id="4" xr3:uid="{ECC910A6-3442-4C10-930E-24DE25F705DB}" name="Rango Fijo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,121 +1007,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1837989B-8E56-4E83-9D76-F5A59BA1275D}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="13">
         <v>33346</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="14">
         <v>0.3263888888888889</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="21">
         <v>0.25</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="20">
         <v>1800</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20">
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20">
         <v>56500</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="23">
         <v>1800</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23">
         <v>56500</v>
       </c>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66440FB-F25E-4AB3-B65C-671DA1B21CBA}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="38">
+        <v>35336446</v>
+      </c>
+      <c r="F2" s="39">
+        <v>33346</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="43">
+        <v>912364</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="38">
+        <v>2342982</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="E8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36">
+        <v>5</v>
+      </c>
+      <c r="C12" s="35">
+        <f>A12+B12</f>
+        <v>15</v>
+      </c>
+      <c r="E12" s="35">
+        <v>10</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="35">
+        <f>SUM(E12:F12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>10</v>
+      </c>
+      <c r="B16" s="36">
+        <v>4</v>
+      </c>
+      <c r="C16" s="35">
+        <f>A16*B16</f>
+        <v>40</v>
+      </c>
+      <c r="E16" s="35">
+        <v>5</v>
+      </c>
+      <c r="F16" s="36">
+        <v>5</v>
+      </c>
+      <c r="G16" s="35">
+        <f>PRODUCT(E16:F16)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-v-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7FC49-20AD-4D92-B35E-41AEAC45C06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CE6F11-D7C9-457E-A8B1-FC3D13B04044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56B30104-99EE-4DD6-9022-7C4FE03B5E61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56B30104-99EE-4DD6-9022-7C4FE03B5E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Formato</t>
   </si>
@@ -257,18 +257,23 @@
   </si>
   <si>
     <t>PRODUCTO()</t>
+  </si>
+  <si>
+    <t>POTENCIA()</t>
+  </si>
+  <si>
+    <t>POTENCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -507,44 +512,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,7 +535,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -566,11 +544,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -1009,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1837989B-8E56-4E83-9D76-F5A59BA1275D}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,20 +1123,20 @@
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>0.25</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <v>1800</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1142,8 +1147,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20">
+      <c r="A8" s="39"/>
+      <c r="B8" s="16">
         <v>350</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1154,8 +1159,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20">
+      <c r="A9" s="40"/>
+      <c r="B9" s="16">
         <v>56500</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1166,10 +1171,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="18">
         <v>1800</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1180,8 +1185,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23">
+      <c r="A11" s="42"/>
+      <c r="B11" s="18">
         <v>350</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1192,8 +1197,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="23">
+      <c r="A12" s="43"/>
+      <c r="B12" s="18">
         <v>56500</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -1258,264 +1263,377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66440FB-F25E-4AB3-B65C-671DA1B21CBA}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="J1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="N1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="29">
         <v>35336446</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="30">
         <v>33346</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="J2" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="N2" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="34">
         <v>912364</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="29">
         <v>2342982</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="E8" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J10" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="E10" s="31" t="s">
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="N10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="K11" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="L11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="N11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="O11" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="P11" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+    <row r="12" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="36">
+      <c r="K12" s="27">
         <v>5</v>
       </c>
-      <c r="C12" s="35">
-        <f>A12+B12</f>
+      <c r="L12" s="26">
+        <f>J12+K12</f>
         <v>15</v>
       </c>
-      <c r="E12" s="35">
+      <c r="N12" s="26">
         <v>10</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="O12" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="35">
-        <f>SUM(E12:F12)</f>
+      <c r="P12" s="26">
+        <f>SUM(N12:O12)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="31" t="s">
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="N14" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="K15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="L15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="N15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="O15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="P15" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+    <row r="16" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="26">
         <v>10</v>
       </c>
-      <c r="B16" s="36">
+      <c r="K16" s="27">
         <v>4</v>
       </c>
-      <c r="C16" s="35">
-        <f>A16*B16</f>
+      <c r="L16" s="26">
+        <f>J16*K16</f>
         <v>40</v>
       </c>
-      <c r="E16" s="35">
+      <c r="N16" s="26">
         <v>5</v>
       </c>
-      <c r="F16" s="36">
+      <c r="O16" s="27">
         <v>5</v>
       </c>
-      <c r="G16" s="35">
-        <f>PRODUCT(E16:F16)</f>
+      <c r="P16" s="26">
+        <f>PRODUCT(N16:O16)</f>
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="N18" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+    </row>
+    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J20" s="26">
+        <v>10</v>
+      </c>
+      <c r="K20" s="27">
+        <v>4</v>
+      </c>
+      <c r="L20" s="26">
+        <f>J20^K20</f>
+        <v>10000</v>
+      </c>
+      <c r="N20" s="26">
+        <v>5</v>
+      </c>
+      <c r="O20" s="27">
+        <v>5</v>
+      </c>
+      <c r="P20" s="26">
+        <f>POWER(N20,O20)</f>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:G10"/>
+  <mergeCells count="10">
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N2:P8"/>
+    <mergeCell ref="J2:L8"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-v-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CE6F11-D7C9-457E-A8B1-FC3D13B04044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7C5B9-F597-40EC-BB30-B194D8E6C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56B30104-99EE-4DD6-9022-7C4FE03B5E61}"/>
   </bookViews>
@@ -545,9 +545,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1127,13 +1127,13 @@
         <v>0.25</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="16">
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="16">
         <v>350</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="16">
         <v>56500</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="18">
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="18">
         <v>350</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="18">
         <v>56500</v>
       </c>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66440FB-F25E-4AB3-B65C-671DA1B21CBA}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,16 +1310,16 @@
       <c r="H1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -1346,16 +1346,16 @@
       <c r="H2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="N2" s="45" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="N2" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1373,15 +1373,17 @@
       <c r="E3" s="34">
         <v>912364</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="F3" s="45">
+        <v>20581</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -1404,56 +1406,56 @@
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="N10" s="44" t="s">
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="N10" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J11" s="23" t="s">
@@ -1506,16 +1508,16 @@
       <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="N14" s="44" t="s">
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="N14" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J15" s="23" t="s">
@@ -1560,16 +1562,16 @@
       </c>
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="N18" s="44" t="s">
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="N18" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J19" s="23" t="s">
@@ -1624,16 +1626,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N10:P10"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="N2:P8"/>
     <mergeCell ref="J2:L8"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fundamentos.xlsx
+++ b/fundamentos.xlsx
@@ -8,14 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-v-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7C5B9-F597-40EC-BB30-B194D8E6C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200579D-8FAB-4208-98B4-027530A69B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56B30104-99EE-4DD6-9022-7C4FE03B5E61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{56B30104-99EE-4DD6-9022-7C4FE03B5E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Empleados" sheetId="6" r:id="rId2"/>
+    <sheet name="Productos" sheetId="7" r:id="rId3"/>
+    <sheet name="Ventas" sheetId="8" r:id="rId4"/>
+    <sheet name="Presentismo" sheetId="9" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="10" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="asist">Presentismo!$AF$3:$AF$7</definedName>
+    <definedName name="aus">Presentismo!$AG$3:$AG$7</definedName>
+    <definedName name="cant_producto">Productos!$D:$D</definedName>
+    <definedName name="cant_ventas">Ventas!$G:$G</definedName>
+    <definedName name="cod_producto">Productos!$A:$A</definedName>
+    <definedName name="detalle_producto">Productos!$B:$B</definedName>
+    <definedName name="iva_21">Productos!$H$2</definedName>
+    <definedName name="iva_producto">Productos!$F:$F</definedName>
+    <definedName name="precio_1">Ventas!$B$2</definedName>
+    <definedName name="precio_2">Ventas!$B$3</definedName>
+    <definedName name="precio_3">Ventas!$B$4</definedName>
+    <definedName name="precio_4">Ventas!$B$5</definedName>
+    <definedName name="precio_5">Ventas!$B$6</definedName>
+    <definedName name="precio_6">Ventas!$B$7</definedName>
+    <definedName name="precio_7">Ventas!$B$8</definedName>
+    <definedName name="precio_8">Ventas!$B$9</definedName>
+    <definedName name="precio_9">Ventas!$B$10</definedName>
+    <definedName name="precio_producto">Productos!$C:$C</definedName>
+    <definedName name="total_producto">Productos!$E:$E</definedName>
+    <definedName name="total_ventas">Ventas!$I:$I</definedName>
+    <definedName name="vendedor">Ventas!$H:$H</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="151">
   <si>
     <t>Formato</t>
   </si>
@@ -208,9 +235,6 @@
     <t>Vitto</t>
   </si>
   <si>
-    <t>12/46/56</t>
-  </si>
-  <si>
     <t>Nac</t>
   </si>
   <si>
@@ -263,17 +287,239 @@
   </si>
   <si>
     <t>POTENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>detalle</t>
+  </si>
+  <si>
+    <t>precio/u</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>microondas</t>
+  </si>
+  <si>
+    <t>lavarropas</t>
+  </si>
+  <si>
+    <t>secarropas</t>
+  </si>
+  <si>
+    <t>aire acondicionado</t>
+  </si>
+  <si>
+    <t>secador de pelo</t>
+  </si>
+  <si>
+    <t>horno electrico</t>
+  </si>
+  <si>
+    <t>notebook</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>placard</t>
+  </si>
+  <si>
+    <t>precio+iva</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>Nombre y apellido</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t>tipo_pago</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>debito</t>
+  </si>
+  <si>
+    <t>efectivo</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>Total Ventas</t>
+  </si>
+  <si>
+    <t>asiento</t>
+  </si>
+  <si>
+    <t>Media Ventas</t>
+  </si>
+  <si>
+    <t>Mejor Venta</t>
+  </si>
+  <si>
+    <t>Menor Valor</t>
+  </si>
+  <si>
+    <t>Vendedor del Mes</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Cant max.</t>
+  </si>
+  <si>
+    <t>Cant min.</t>
+  </si>
+  <si>
+    <t>Repeticion</t>
+  </si>
+  <si>
+    <t>Mediana Ventas</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>Inasistencias</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Segundos</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>asist. Max</t>
+  </si>
+  <si>
+    <t>asist. Min</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>apellido y nombre</t>
+  </si>
+  <si>
+    <t>cuit</t>
+  </si>
+  <si>
+    <t>fecha nac</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>Vargas Luis</t>
+  </si>
+  <si>
+    <t>Ramirez Cintia</t>
+  </si>
+  <si>
+    <t>Diaz Claudia</t>
+  </si>
+  <si>
+    <t>20-43242343-2</t>
+  </si>
+  <si>
+    <t>30-23421233-1</t>
+  </si>
+  <si>
+    <t>25-26432891-6</t>
+  </si>
+  <si>
+    <t>27-35189382-5</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Ini</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>separador</t>
+  </si>
+  <si>
+    <t>largo</t>
+  </si>
+  <si>
+    <t>Rojas Armando Jorge Luis</t>
+  </si>
+  <si>
+    <t>bksp_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -477,7 +723,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -486,8 +732,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,12 +788,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,17 +821,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="60"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
     <cellStyle name="40% - Énfasis1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Énfasis5" xfId="7" builtinId="47"/>
     <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
     <cellStyle name="Énfasis5" xfId="5" builtinId="45"/>
+    <cellStyle name="Millares" xfId="8" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="9" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -703,7 +969,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BE75D-D6D8-44BD-A0DA-A32B99EC2154}" name="Tabla1" displayName="Tabla1" ref="D1:G4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BE75D-D6D8-44BD-A0DA-A32B99EC2154}" name="rangos" displayName="rangos" ref="D1:G4" totalsRowShown="0">
   <autoFilter ref="D1:G4" xr:uid="{173BE75D-D6D8-44BD-A0DA-A32B99EC2154}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{28CD16B4-BF1C-4E14-87B0-3967C63AF460}" name="Tipo"/>
@@ -1015,7 +1281,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G1" sqref="D1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,380 +1529,2399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66440FB-F25E-4AB3-B65C-671DA1B21CBA}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="P1" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="29">
+        <v>35336446</v>
+      </c>
+      <c r="G2" s="30">
+        <v>33346</v>
+      </c>
+      <c r="H2" s="54">
+        <f ca="1">YEAR(TODAY()) - YEAR(G2)</f>
+        <v>30</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="P2" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="33">
+        <v>912364</v>
+      </c>
+      <c r="G3" s="35">
+        <v>20581</v>
+      </c>
+      <c r="H3" s="54">
+        <f t="shared" ref="H3:H6" ca="1" si="0">YEAR(TODAY()) - YEAR(G3)</f>
+        <v>65</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="29">
+        <v>2342982</v>
+      </c>
+      <c r="G4" s="30">
+        <v>20618</v>
+      </c>
+      <c r="H4" s="54">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>30304567</v>
+      </c>
+      <c r="G5" s="45">
+        <v>33662</v>
+      </c>
+      <c r="H5" s="54">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>17239410</v>
+      </c>
+      <c r="G6" s="45">
+        <v>31477</v>
+      </c>
+      <c r="H6" s="54">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="P10" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="N1" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="29">
-        <v>35336446</v>
-      </c>
-      <c r="F2" s="30">
-        <v>33346</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="N2" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="34">
-        <v>912364</v>
-      </c>
-      <c r="F3" s="45">
-        <v>20581</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="29">
-        <v>2342982</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J10" s="43" t="s">
+      <c r="L11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="N10" s="43" t="s">
+      <c r="M11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="26">
+        <v>10</v>
+      </c>
+      <c r="M12" s="27">
+        <v>5</v>
+      </c>
+      <c r="N12" s="26">
+        <f>L12+M12</f>
+        <v>15</v>
+      </c>
+      <c r="P12" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J11" s="23" t="s">
+      <c r="R12" s="26">
+        <f>SUM(P12:Q12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="P14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="N15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="23" t="s">
+      <c r="P15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="R15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="26">
+    </row>
+    <row r="16" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="26">
         <v>10</v>
       </c>
-      <c r="K12" s="27">
+      <c r="M16" s="27">
+        <v>4</v>
+      </c>
+      <c r="N16" s="26">
+        <f>L16*M16</f>
+        <v>40</v>
+      </c>
+      <c r="P16" s="26">
         <v>5</v>
       </c>
-      <c r="L12" s="26">
-        <f>J12+K12</f>
-        <v>15</v>
-      </c>
-      <c r="N12" s="26">
+      <c r="Q16" s="27">
+        <v>5</v>
+      </c>
+      <c r="R16" s="26">
+        <f>PRODUCT(P16:Q16)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="P18" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20" s="26">
         <v>10</v>
       </c>
-      <c r="O12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="26">
-        <f>SUM(N12:O12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J14" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="N14" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="26">
-        <v>10</v>
-      </c>
-      <c r="K16" s="27">
+      <c r="M20" s="27">
         <v>4</v>
       </c>
-      <c r="L16" s="26">
-        <f>J16*K16</f>
-        <v>40</v>
-      </c>
-      <c r="N16" s="26">
+      <c r="N20" s="26">
+        <f>L20^M20</f>
+        <v>10000</v>
+      </c>
+      <c r="P20" s="26">
         <v>5</v>
       </c>
-      <c r="O16" s="27">
+      <c r="Q20" s="27">
         <v>5</v>
       </c>
-      <c r="P16" s="26">
-        <f>PRODUCT(N16:O16)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="N18" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-    </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J19" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J20" s="26">
-        <v>10</v>
-      </c>
-      <c r="K20" s="27">
-        <v>4</v>
-      </c>
-      <c r="L20" s="26">
-        <f>J20^K20</f>
-        <v>10000</v>
-      </c>
-      <c r="N20" s="26">
-        <v>5</v>
-      </c>
-      <c r="O20" s="27">
-        <v>5</v>
-      </c>
-      <c r="P20" s="26">
-        <f>POWER(N20,O20)</f>
+      <c r="R20" s="26">
+        <f>POWER(P20,Q20)</f>
         <v>3125</v>
       </c>
     </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N2:P8"/>
-    <mergeCell ref="J2:L8"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P2:R8"/>
+    <mergeCell ref="L2:N8"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="P14:R14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6BCE23-49C6-4DB9-B1A7-12F2629218FA}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="46">
+        <v>15699</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>156990</v>
+      </c>
+      <c r="F2" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>18995.79</v>
+      </c>
+      <c r="H2" s="48">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="46">
+        <v>69999</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>3499950</v>
+      </c>
+      <c r="F3" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>84698.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="46">
+        <v>25500</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>1530000</v>
+      </c>
+      <c r="F4" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>30855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="46">
+        <v>45560</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>1047880</v>
+      </c>
+      <c r="F5" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>55127.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="46">
+        <v>5400</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>259200</v>
+      </c>
+      <c r="F6" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="46">
+        <v>12500</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>400000</v>
+      </c>
+      <c r="F7" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>15125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="46">
+        <v>56799</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>3180744</v>
+      </c>
+      <c r="F8" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>68726.789999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="46">
+        <v>23499</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>2114910</v>
+      </c>
+      <c r="F9" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>28433.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="46">
+        <v>23456</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" s="47">
+        <f>precio_producto*cant_producto</f>
+        <v>4691200</v>
+      </c>
+      <c r="F10" s="46">
+        <f>precio_producto+precio_producto*iva_21</f>
+        <v>28381.760000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE669E19-0F3F-4EF8-9EBC-6B70E06D0050}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>cod_producto</f>
+        <v>codigo</v>
+      </c>
+      <c r="B1" t="str">
+        <f>iva_producto</f>
+        <v>precio+iva</v>
+      </c>
+      <c r="C1" t="str">
+        <f>detalle_producto</f>
+        <v>detalle</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>cod_producto</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="46">
+        <f>iva_producto</f>
+        <v>18995.79</v>
+      </c>
+      <c r="C2" t="str">
+        <f>detalle_producto</f>
+        <v>microondas</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="46">
+        <f>precio_3*cant_ventas</f>
+        <v>30855</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="46">
+        <f>SUM(total_ventas)</f>
+        <v>1132316.79</v>
+      </c>
+      <c r="M2">
+        <f>COUNT(total_ventas)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>cod_producto</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="46">
+        <f>iva_producto</f>
+        <v>84698.79</v>
+      </c>
+      <c r="C3" t="str">
+        <f>detalle_producto</f>
+        <v>lavarropas</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="46">
+        <f>precio_4*cant_ventas</f>
+        <v>110255.2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>cod_producto</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="46">
+        <f>iva_producto</f>
+        <v>30855</v>
+      </c>
+      <c r="C4" t="str">
+        <f>detalle_producto</f>
+        <v>secarropas</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="46">
+        <f>precio_5*cant_ventas</f>
+        <v>32670</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="46">
+        <f>AVERAGE(total_ventas)</f>
+        <v>75487.786000000007</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(cant_ventas)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>cod_producto</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="46">
+        <f>iva_producto</f>
+        <v>55127.6</v>
+      </c>
+      <c r="C5" t="str">
+        <f>detalle_producto</f>
+        <v>aire acondicionado</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="46">
+        <f>precio_2*cant_ventas</f>
+        <v>169397.58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>cod_producto</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="46">
+        <f>iva_producto</f>
+        <v>6534</v>
+      </c>
+      <c r="C6" t="str">
+        <f>detalle_producto</f>
+        <v>secador de pelo</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="46">
+        <f>precio_1*cant_ventas</f>
+        <v>18995.79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="46">
+        <f>MEDIAN(total_ventas)</f>
+        <v>84698.79</v>
+      </c>
+      <c r="M6">
+        <f>MEDIAN(cant_ventas)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>cod_producto</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="46">
+        <f>iva_producto</f>
+        <v>15125</v>
+      </c>
+      <c r="C7" t="str">
+        <f>detalle_producto</f>
+        <v>horno electrico</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="46">
+        <f>precio_3*cant_ventas</f>
+        <v>92565</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>cod_producto</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="46">
+        <f>iva_producto</f>
+        <v>68726.789999999994</v>
+      </c>
+      <c r="C8" t="str">
+        <f>detalle_producto</f>
+        <v>notebook</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="46">
+        <f>precio_3*cant_ventas</f>
+        <v>154275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="46">
+        <f>MAX(total_ventas)</f>
+        <v>169397.58</v>
+      </c>
+      <c r="M8">
+        <f>MAX(cant_ventas)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>cod_producto</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="46">
+        <f>iva_producto</f>
+        <v>28433.79</v>
+      </c>
+      <c r="C9" t="str">
+        <f>detalle_producto</f>
+        <v>monitor</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="46">
+        <f>precio_4*cant_ventas</f>
+        <v>110255.2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>cod_producto</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="46">
+        <f>iva_producto</f>
+        <v>28381.760000000002</v>
+      </c>
+      <c r="C10" t="str">
+        <f>detalle_producto</f>
+        <v>placard</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="46">
+        <f>precio_3*cant_ventas</f>
+        <v>92565</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="46">
+        <f>MIN(total_ventas)</f>
+        <v>6534</v>
+      </c>
+      <c r="M10">
+        <f>MIN(cant_ventas)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="46">
+        <f>precio_2*cant_ventas</f>
+        <v>84698.79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Empleados!A1</f>
+        <v>Codigo</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="46">
+        <f>precio_1*cant_ventas</f>
+        <v>56987.37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="50">
+        <f>MODE(vendedor)</f>
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <f>MODE(cant_ventas)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Empleados!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT(Empleados!C2," ",Empleados!B2)</f>
+        <v>Racedo Cristian</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="46">
+        <f>precio_8*cant_ventas</f>
+        <v>56867.58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Empleados!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B14" t="str">
+        <f>_xlfn.CONCAT(Empleados!C3," ",Empleados!B3)</f>
+        <v>Freud Sigmund</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="46">
+        <f>precio_5*cant_ventas</f>
+        <v>6534</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>Empleados!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B15" t="str">
+        <f>_xlfn.CONCAT(Empleados!C4," ",Empleados!B4)</f>
+        <v>Vitto Corleone</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="46">
+        <f>precio_6*cant_ventas</f>
+        <v>30250</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>Empleados!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B16" t="str">
+        <f>_xlfn.CONCAT(Empleados!C5," ",Empleados!B5)</f>
+        <v xml:space="preserve">Perez Juan </v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="46">
+        <f>precio_9*cant_ventas</f>
+        <v>85145.279999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>Empleados!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B17" t="str">
+        <f>_xlfn.CONCAT(Empleados!C6," ",Empleados!B6)</f>
+        <v>Alvarez Paola</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I9" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB82A7-93C6-4622-8504-C8DAA74FDD8B}">
+  <dimension ref="A1:AJ16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="7.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="56" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="57">
+        <v>44378</v>
+      </c>
+      <c r="C1" s="57">
+        <v>44379</v>
+      </c>
+      <c r="D1" s="57">
+        <v>44380</v>
+      </c>
+      <c r="E1" s="57">
+        <v>44381</v>
+      </c>
+      <c r="F1" s="57">
+        <v>44382</v>
+      </c>
+      <c r="G1" s="57">
+        <v>44383</v>
+      </c>
+      <c r="H1" s="57">
+        <v>44384</v>
+      </c>
+      <c r="I1" s="57">
+        <v>44385</v>
+      </c>
+      <c r="J1" s="57">
+        <v>44386</v>
+      </c>
+      <c r="K1" s="57">
+        <v>44387</v>
+      </c>
+      <c r="L1" s="57">
+        <v>44388</v>
+      </c>
+      <c r="M1" s="57">
+        <v>44389</v>
+      </c>
+      <c r="N1" s="57">
+        <v>44390</v>
+      </c>
+      <c r="O1" s="57">
+        <v>44391</v>
+      </c>
+      <c r="P1" s="57">
+        <v>44392</v>
+      </c>
+      <c r="Q1" s="57">
+        <v>44393</v>
+      </c>
+      <c r="R1" s="57">
+        <v>44394</v>
+      </c>
+      <c r="S1" s="57">
+        <v>44395</v>
+      </c>
+      <c r="T1" s="57">
+        <v>44396</v>
+      </c>
+      <c r="U1" s="57">
+        <v>44397</v>
+      </c>
+      <c r="V1" s="57">
+        <v>44398</v>
+      </c>
+      <c r="W1" s="57">
+        <v>44399</v>
+      </c>
+      <c r="X1" s="57">
+        <v>44400</v>
+      </c>
+      <c r="Y1" s="57">
+        <v>44401</v>
+      </c>
+      <c r="Z1" s="57">
+        <v>44402</v>
+      </c>
+      <c r="AA1" s="57">
+        <v>44403</v>
+      </c>
+      <c r="AB1" s="57">
+        <v>44404</v>
+      </c>
+      <c r="AC1" s="57">
+        <v>44405</v>
+      </c>
+      <c r="AD1" s="57">
+        <v>44406</v>
+      </c>
+      <c r="AE1" s="57">
+        <v>44407</v>
+      </c>
+      <c r="AI1" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="str">
+        <f>TEXT(B1,"dddd")</f>
+        <v>jueves</v>
+      </c>
+      <c r="C2" s="52" t="str">
+        <f t="shared" ref="C2:AE2" si="0">TEXT(C1,"dddd")</f>
+        <v>viernes</v>
+      </c>
+      <c r="D2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>sábado</v>
+      </c>
+      <c r="E2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>domingo</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>lunes</v>
+      </c>
+      <c r="G2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>martes</v>
+      </c>
+      <c r="H2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>miércoles</v>
+      </c>
+      <c r="I2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>jueves</v>
+      </c>
+      <c r="J2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>viernes</v>
+      </c>
+      <c r="K2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>sábado</v>
+      </c>
+      <c r="L2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>domingo</v>
+      </c>
+      <c r="M2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>lunes</v>
+      </c>
+      <c r="N2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>martes</v>
+      </c>
+      <c r="O2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>miércoles</v>
+      </c>
+      <c r="P2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>jueves</v>
+      </c>
+      <c r="Q2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>viernes</v>
+      </c>
+      <c r="R2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>sábado</v>
+      </c>
+      <c r="S2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>domingo</v>
+      </c>
+      <c r="T2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>lunes</v>
+      </c>
+      <c r="U2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>martes</v>
+      </c>
+      <c r="V2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>miércoles</v>
+      </c>
+      <c r="W2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>jueves</v>
+      </c>
+      <c r="X2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>viernes</v>
+      </c>
+      <c r="Y2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>sábado</v>
+      </c>
+      <c r="Z2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>domingo</v>
+      </c>
+      <c r="AA2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>lunes</v>
+      </c>
+      <c r="AB2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>martes</v>
+      </c>
+      <c r="AC2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>miércoles</v>
+      </c>
+      <c r="AD2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>jueves</v>
+      </c>
+      <c r="AE2" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>viernes</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="45">
+        <f ca="1">TODAY()</f>
+        <v>44398</v>
+      </c>
+      <c r="AJ2" s="53">
+        <f ca="1">NOW()</f>
+        <v>44398.921204166669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="str">
+        <f>_xlfn.CONCAT(Empleados!C2," ",Empleados!B2)</f>
+        <v>Racedo Cristian</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF3">
+        <f>COUNTA(B3:AE3)</f>
+        <v>18</v>
+      </c>
+      <c r="AG3">
+        <f>COUNTBLANK(B3:AE3)</f>
+        <v>12</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ3">
+        <f ca="1">YEAR(AI2)</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="str">
+        <f>_xlfn.CONCAT(Empleados!C3," ",Empleados!B3)</f>
+        <v>Freud Sigmund</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF7" si="1">COUNTA(B4:AE4)</f>
+        <v>15</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG7" si="2">COUNTBLANK(B4:AE4)</f>
+        <v>15</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ4">
+        <f ca="1">MONTH(AI2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="str">
+        <f>_xlfn.CONCAT(Empleados!C4," ",Empleados!B4)</f>
+        <v>Vitto Corleone</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" t="s">
+        <v>120</v>
+      </c>
+      <c r="U5" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" t="s">
+        <v>120</v>
+      </c>
+      <c r="X5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ5">
+        <f ca="1">DAY(AI2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="str">
+        <f>_xlfn.CONCAT(Empleados!C5," ",Empleados!B5)</f>
+        <v xml:space="preserve">Perez Juan </v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" t="s">
+        <v>120</v>
+      </c>
+      <c r="V6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ6">
+        <f ca="1">HOUR(AJ2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="str">
+        <f>_xlfn.CONCAT(Empleados!C6," ",Empleados!B6)</f>
+        <v>Alvarez Paola</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" t="s">
+        <v>120</v>
+      </c>
+      <c r="U7" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" t="s">
+        <v>120</v>
+      </c>
+      <c r="X7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ7">
+        <f ca="1">MINUTE(AJ2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>COUNTA(B3:B7)</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:AE8" si="3">COUNTA(C3:C7)</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <f>SUM(AF3:AF7)</f>
+        <v>81</v>
+      </c>
+      <c r="AG8">
+        <f>SUM(AG3:AG7)</f>
+        <v>69</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ8">
+        <f ca="1">SECOND(AJ2)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
+        <f>MAX(asist)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
+        <f>MIN(asist)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <f>AVERAGE(asist)</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
+        <f>MEDIAN(asist)</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A209618-214A-4558-93B9-20406C7574C7}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="45">
+        <v>35302</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,2)</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="49" t="str">
+        <f>MID(C2,4,8)</f>
+        <v>43242343</v>
+      </c>
+      <c r="H2" t="str">
+        <f>RIGHT(C2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" t="str">
+        <f>RIGHT(B2,M2-L2)</f>
+        <v>Armando Jorge Luis</v>
+      </c>
+      <c r="J2" t="str">
+        <f>MID(B2,N2,M2-N2 + 1)</f>
+        <v xml:space="preserve"> Jorge Luis</v>
+      </c>
+      <c r="K2" t="str">
+        <f>LEFT(B2,L2)</f>
+        <v xml:space="preserve">Rojas </v>
+      </c>
+      <c r="L2">
+        <f>FIND(" ",B2)</f>
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <f>LEN(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <f>FIND(" ",B2,L2+1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="45">
+        <v>33511</v>
+      </c>
+      <c r="F3" t="str">
+        <f>LEFT(C3,2)</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="49" t="str">
+        <f t="shared" ref="G3:G5" si="0">MID(C3,4,8)</f>
+        <v>23421233</v>
+      </c>
+      <c r="H3" t="str">
+        <f>RIGHT(C3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f>RIGHT(B3,M3-L3)</f>
+        <v>Luis</v>
+      </c>
+      <c r="K3" t="str">
+        <f>LEFT(B3,L3)</f>
+        <v xml:space="preserve">Vargas </v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="1">FIND(" ",B3)</f>
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="2">LEN(B3)</f>
+        <v>11</v>
+      </c>
+      <c r="N3" t="e">
+        <f>FIND(" ",B3,L3+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="45">
+        <v>31183</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F5" si="3">LEFT(C4,2)</f>
+        <v>25</v>
+      </c>
+      <c r="G4" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>26432891</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H5" si="4">RIGHT(C4,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I4" t="str">
+        <f>RIGHT(B4,M4-L4)</f>
+        <v>Cintia</v>
+      </c>
+      <c r="K4" t="str">
+        <f>LEFT(B4,L4)</f>
+        <v xml:space="preserve">Ramirez </v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N4" t="e">
+        <f>FIND(" ",B4,L4+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="45">
+        <v>33679</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>35189382</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I5" t="str">
+        <f>RIGHT(B5,M5-L5)</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K5" t="str">
+        <f>LEFT(B5,L5)</f>
+        <v xml:space="preserve">Diaz </v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N5" t="e">
+        <f>FIND(" ",B5,L5+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>